--- a/FogliCalcolo/ImpiantoPneumatico/ImpiantoPneumatico.xlsx
+++ b/FogliCalcolo/ImpiantoPneumatico/ImpiantoPneumatico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Uni\Impianti meccanici\MaterialeEsame\FogliCalcolo\ImpiantoPneumatico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90446869-5433-4A57-8971-AB8264E5541B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41E8280-93B4-4B62-A4C4-F91B68603CBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAE0CB82-2983-476A-B252-1B601C3CAAB3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
   <si>
     <t>Dati</t>
   </si>
@@ -102,30 +102,18 @@
     <t>filtro</t>
   </si>
   <si>
-    <t>La</t>
-  </si>
-  <si>
-    <t>Lm</t>
-  </si>
-  <si>
     <t>kg/h</t>
   </si>
   <si>
     <t>Pa</t>
   </si>
   <si>
-    <t>tan phi</t>
-  </si>
-  <si>
     <t>accidentali</t>
   </si>
   <si>
     <t>j</t>
   </si>
   <si>
-    <t>perdite totali</t>
-  </si>
-  <si>
     <t>totale</t>
   </si>
   <si>
@@ -139,9 +127,6 @@
   </si>
   <si>
     <t>eta m</t>
-  </si>
-  <si>
-    <t>m3/min</t>
   </si>
   <si>
     <t>kW</t>
@@ -276,7 +261,124 @@
     </r>
   </si>
   <si>
-    <t>kg/m3</t>
+    <r>
+      <t>kg/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/min</t>
+    </r>
+  </si>
+  <si>
+    <t>perdite tot</t>
+  </si>
+  <si>
+    <t>Potenze</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>φ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -286,7 +388,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,6 +438,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -351,7 +469,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -359,31 +477,154 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -769,13 +1010,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>13.08</c:v>
+                  <c:v>26.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.5304347826086957</c:v>
+                  <c:v>17.060869565217391</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108.99999999999999</c:v>
+                  <c:v>217.99999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1770,16 +2011,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>336273</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>82826</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>54664</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>182218</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>16564</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>184080</xdr:rowOff>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>101254</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2104,45 +2345,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17ABF7C-F85F-4D3F-BF5C-441A2CA8C12E}">
-  <dimension ref="B3:AI53"/>
+  <dimension ref="B2:AI53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="8" width="10.7109375" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="C3" s="14" t="s">
         <v>0</v>
       </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="3:35" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="C4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="7">
         <v>650</v>
       </c>
-      <c r="E4" t="s">
-        <v>46</v>
+      <c r="E4" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="3:35" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="C5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="7">
         <v>1.24</v>
       </c>
-      <c r="E5" t="s">
-        <v>46</v>
+      <c r="E5" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="AG5" t="s">
         <v>2</v>
@@ -2155,735 +2399,816 @@
       </c>
     </row>
     <row r="6" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="C6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="7">
         <v>2543</v>
       </c>
-      <c r="E6" t="s">
-        <v>24</v>
+      <c r="E6" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="AF6" t="s">
         <v>20</v>
       </c>
-      <c r="AG6" s="6">
+      <c r="AG6" s="1">
         <f>C28+F28</f>
         <v>378.15073131044704</v>
       </c>
-      <c r="AH6" s="6">
+      <c r="AH6" s="1">
         <f>D28+G28</f>
         <v>634.38817308267312</v>
       </c>
-      <c r="AI6" s="6">
+      <c r="AI6" s="1">
         <f>E28+H28</f>
         <v>768.56350161415617</v>
       </c>
     </row>
-    <row r="7" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="C7" s="10"/>
-      <c r="D7">
+    <row r="7" spans="3:35" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C7" s="9"/>
+      <c r="D7" s="7">
         <f>D6/60</f>
         <v>42.383333333333333</v>
       </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-    </row>
-    <row r="8" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="E7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+    </row>
+    <row r="8" spans="3:35" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="10"/>
-      <c r="D8">
+      <c r="D8" s="11">
         <f>D6/3600</f>
         <v>0.70638888888888884</v>
       </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-    </row>
-    <row r="9" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="E8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+    </row>
+    <row r="9" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AF9" t="s">
         <v>17</v>
       </c>
-      <c r="AG9" s="6">
-        <f>C29+F29</f>
+      <c r="AG9" s="1">
+        <f t="shared" ref="AG9:AI15" si="0">C29+F29</f>
         <v>1504.4598535596256</v>
       </c>
-      <c r="AH9" s="6">
-        <f>D29+G29</f>
+      <c r="AH9" s="1">
+        <f t="shared" si="0"/>
         <v>2530.6368732819046</v>
       </c>
-      <c r="AI9" s="6">
-        <f>E29+H29</f>
+      <c r="AI9" s="1">
+        <f t="shared" si="0"/>
         <v>2982.478264895924</v>
       </c>
     </row>
     <row r="10" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="13" t="s">
         <v>4</v>
       </c>
+      <c r="G10" s="5"/>
       <c r="AF10" t="s">
         <v>18</v>
       </c>
-      <c r="AG10" s="6">
-        <f>C30+F30</f>
+      <c r="AG10" s="1">
+        <f t="shared" si="0"/>
         <v>65.72462071607336</v>
       </c>
-      <c r="AH10" s="6">
-        <f>D30+G30</f>
+      <c r="AH10" s="1">
+        <f t="shared" si="0"/>
         <v>75.113606225150278</v>
       </c>
-      <c r="AI10" s="6">
-        <f>E30+H30</f>
+      <c r="AI10" s="1">
+        <f t="shared" si="0"/>
         <v>566.08775889349545</v>
       </c>
     </row>
     <row r="11" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="C11" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="18">
         <v>1.5</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="18">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="18">
         <v>0.18</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AF11" t="s">
         <v>19</v>
       </c>
-      <c r="AG11" s="6">
-        <f>C31+F31</f>
-        <v>13.08</v>
-      </c>
-      <c r="AH11" s="6">
-        <f>D31+G31</f>
-        <v>8.5304347826086957</v>
-      </c>
-      <c r="AI11" s="6">
-        <f>E31+H31</f>
-        <v>108.99999999999999</v>
+      <c r="AG11" s="1">
+        <f t="shared" si="0"/>
+        <v>26.16</v>
+      </c>
+      <c r="AH11" s="1">
+        <f t="shared" si="0"/>
+        <v>17.060869565217391</v>
+      </c>
+      <c r="AI11" s="1">
+        <f t="shared" si="0"/>
+        <v>217.99999999999997</v>
       </c>
     </row>
     <row r="12" spans="3:35" ht="18" x14ac:dyDescent="0.35">
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C12" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="18">
         <f>0.9*D4^0.5</f>
         <v>22.945587811167531</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="18">
         <v>29.7</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="18">
         <v>28</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="8" t="s">
         <v>6</v>
       </c>
       <c r="AF12" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG12" s="6">
-        <f>C32+F32</f>
+        <v>24</v>
+      </c>
+      <c r="AG12" s="1">
+        <f t="shared" si="0"/>
         <v>910.29841422528466</v>
       </c>
-      <c r="AH12" s="6">
-        <f>D32+G32</f>
+      <c r="AH12" s="1">
+        <f t="shared" si="0"/>
         <v>1355.9739173848675</v>
       </c>
-      <c r="AI12" s="6">
-        <f>E32+H32</f>
+      <c r="AI12" s="1">
+        <f t="shared" si="0"/>
         <v>5934.3855777590434</v>
       </c>
     </row>
     <row r="13" spans="3:35" ht="18" x14ac:dyDescent="0.35">
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="18">
         <f>D11*$D$6/3600</f>
         <v>1.0595833333333333</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="18">
         <f>E11*$D$6/3600</f>
         <v>1.6246944444444444</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="18">
         <f>F11*$D$6/3600</f>
         <v>0.12715000000000001</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="AF13" t="s">
         <v>20</v>
       </c>
-      <c r="AG13" s="6">
-        <f>C33+F33</f>
+      <c r="AG13" s="1">
+        <f t="shared" si="0"/>
         <v>3700.0765962828441</v>
       </c>
-      <c r="AH13" s="6">
-        <f>D33+G33</f>
+      <c r="AH13" s="1">
+        <f t="shared" si="0"/>
         <v>6274.7235403388531</v>
       </c>
-      <c r="AI13" s="6">
-        <f>E33+H33</f>
+      <c r="AI13" s="1">
+        <f t="shared" si="0"/>
         <v>6767.8776005345544</v>
       </c>
     </row>
     <row r="14" spans="3:35" ht="18" x14ac:dyDescent="0.35">
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C14" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="19">
         <f>(4*D13/(PI()*D12))^0.5</f>
         <v>0.24247838157685256</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="19">
         <v>0.26</v>
       </c>
-      <c r="F14" s="2">
-        <f t="shared" ref="F14" si="0">(4*F13/(PI()*F12))^0.5</f>
+      <c r="F14" s="19">
+        <f t="shared" ref="F14" si="1">(4*F13/(PI()*F12))^0.5</f>
         <v>7.6038619913331815E-2</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="8" t="s">
         <v>8</v>
       </c>
       <c r="AF14" t="s">
         <v>21</v>
       </c>
-      <c r="AG14" s="6">
-        <f>C34+F34</f>
+      <c r="AG14" s="1">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="AH14" s="6">
-        <f>D34+G34</f>
+      <c r="AH14" s="1">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="AI14" s="6">
-        <f>E34+H34</f>
+      <c r="AI14" s="1">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
     <row r="15" spans="3:35" ht="18" x14ac:dyDescent="0.35">
-      <c r="C15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="21">
         <v>0.24</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="21">
         <v>0.26</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="21">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="8"/>
+      <c r="I15" s="3"/>
       <c r="AF15" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG15" s="6">
-        <f>C35+F35</f>
-        <v>8571.790216094274</v>
-      </c>
-      <c r="AH15" s="6">
-        <f>D35+G35</f>
-        <v>12879.366545096058</v>
-      </c>
-      <c r="AI15" s="6">
-        <f>E35+H35</f>
-        <v>19128.392703697173</v>
+        <v>26</v>
+      </c>
+      <c r="AG15" s="1">
+        <f t="shared" si="0"/>
+        <v>8584.8702160942739</v>
+      </c>
+      <c r="AH15" s="1">
+        <f t="shared" si="0"/>
+        <v>12887.896979878666</v>
+      </c>
+      <c r="AI15" s="1">
+        <f t="shared" si="0"/>
+        <v>19237.392703697173</v>
       </c>
     </row>
     <row r="16" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="21">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="21">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="21">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="3" t="s">
+    <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="24">
         <f>4*D13/(PI()*(D15-D16)^2)</f>
         <v>24.429215046487997</v>
       </c>
-      <c r="E17" s="4">
-        <f t="shared" ref="E17:F17" si="1">4*E13/(PI()*(E15-E16)^2)</f>
+      <c r="E17" s="24">
+        <f t="shared" ref="E17:F17" si="2">4*E13/(PI()*(E15-E16)^2)</f>
         <v>31.812767624424339</v>
       </c>
-      <c r="F17" s="4">
-        <f t="shared" si="1"/>
+      <c r="F17" s="24">
+        <f t="shared" si="2"/>
         <v>33.039266961852242</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="8"/>
-    </row>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D19" s="5" t="s">
+      <c r="B19" s="26" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20">
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
+    </row>
+    <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B20" s="17"/>
+      <c r="C20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B21" s="17"/>
+      <c r="C21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="7">
         <v>4</v>
       </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22">
+      <c r="B22" s="17"/>
+      <c r="C22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="7">
+        <v>4</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="17"/>
+      <c r="C23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="17"/>
+      <c r="C24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="17"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="17"/>
+      <c r="C26" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="17"/>
+      <c r="C27" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+      <c r="D27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D27" t="s">
+      <c r="G27" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E27" t="s">
+      <c r="H27" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" t="s">
-        <v>4</v>
-      </c>
+      <c r="I27" s="8"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="B28" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="31">
         <f>$D$5*D17^2/2</f>
         <v>370.00765962828439</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="31">
         <f>$D$5*E17^2/2</f>
         <v>627.47235403388527</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="31">
         <f>$D$5*F17^2/2</f>
         <v>676.78776005345549</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="31">
         <f>$D$6/3600/D13*D17/2</f>
         <v>8.143071682162665</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="31">
         <f>$D$6/3600/E13*E17/2</f>
         <v>6.9158190487878999</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="31">
         <f>$D$6/3600/F13*F17/2</f>
         <v>91.775741560700652</v>
       </c>
-      <c r="I28" t="s">
-        <v>25</v>
+      <c r="I28" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="B29" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="31">
         <f>4*C28</f>
         <v>1480.0306385131375</v>
       </c>
-      <c r="D29" s="6">
-        <f t="shared" ref="D29:E29" si="2">4*D28</f>
+      <c r="D29" s="31">
+        <f t="shared" ref="D29:E29" si="3">4*D28</f>
         <v>2509.8894161355411</v>
       </c>
-      <c r="E29" s="6">
-        <f t="shared" si="2"/>
+      <c r="E29" s="31">
+        <f t="shared" si="3"/>
         <v>2707.1510402138219</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="31">
         <f>3*F28</f>
         <v>24.429215046487997</v>
       </c>
-      <c r="G29" s="6">
-        <f t="shared" ref="G29:H29" si="3">3*G28</f>
+      <c r="G29" s="31">
+        <f t="shared" ref="G29:H29" si="4">3*G28</f>
         <v>20.747457146363701</v>
       </c>
-      <c r="H29" s="6">
-        <f t="shared" si="3"/>
+      <c r="H29" s="31">
+        <f t="shared" si="4"/>
         <v>275.32722468210193</v>
       </c>
-      <c r="I29" t="s">
-        <v>25</v>
+      <c r="I29" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="B30" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="31">
         <f>0.0001*$D$5^0.85*D17^2/(D15-D16)^1.3*$D$20*9.81</f>
         <v>36.948620716073357</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="31">
         <f>0.0001*$D$5^0.85*E17^2/(E15-E16)^1.3*$D$20*9.81</f>
         <v>56.346649703411146</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="31">
         <f>0.0001*$D$5^0.85*F17^2/(F15-F16)^1.3*$D$20*9.81</f>
         <v>326.28775889349544</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="31">
         <f>2*$D$23*$D$6/3600/D13*$D$21*9.81</f>
         <v>28.776000000000003</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="31">
         <f>2*$D$23*$D$6/3600/E13*$D$21*9.81</f>
         <v>18.766956521739136</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="31">
         <f>2*$D$23*$D$6/3600/F13*$D$21*9.81</f>
         <v>239.80000000000004</v>
       </c>
-      <c r="I30" t="s">
-        <v>25</v>
+      <c r="I30" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="B31" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="31">
         <v>0</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="31">
         <v>0</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="31">
         <v>0</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="31">
         <f>$D$6/3600/D13*$D$22*9.81</f>
-        <v>13.08</v>
-      </c>
-      <c r="G31" s="6">
+        <v>26.16</v>
+      </c>
+      <c r="G31" s="31">
         <f>$D$6/3600/E13*$D$22*9.81</f>
-        <v>8.5304347826086957</v>
-      </c>
-      <c r="H31" s="6">
+        <v>17.060869565217391</v>
+      </c>
+      <c r="H31" s="31">
         <f>$D$6/3600/F13*$D$22*9.81</f>
-        <v>108.99999999999999</v>
-      </c>
-      <c r="I31" t="s">
-        <v>25</v>
+        <v>217.99999999999997</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="6">
+      <c r="B32" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="31">
         <f>$D$24*$D$5*D17^2/2</f>
         <v>592.01225540525502</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="31">
         <f>$D$24*$D$5*E17^2/2</f>
         <v>1003.9557664542165</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="31">
         <f>$D$24*$D$5*F17^2/2</f>
         <v>1082.8604160855286</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="31">
         <f>C32*$D$6/3600/$D$5/D13</f>
         <v>318.28615882002958</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="31">
         <f>D32*$D$6/3600/$D$5/E13</f>
         <v>352.01815093065096</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="31">
         <f>E32*$D$6/3600/$D$5/F13</f>
         <v>4851.525161673515</v>
       </c>
-      <c r="I32" t="s">
-        <v>25</v>
+      <c r="I32" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="B33" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="31">
         <f>10*$D$5*D17^2/2</f>
         <v>3700.0765962828441</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="31">
         <f>10*$D$5*E17^2/2</f>
         <v>6274.7235403388531</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="31">
         <f>10*$D$5*F17^2/2</f>
         <v>6767.8776005345544</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="31">
         <v>0</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="31">
         <v>0</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="31">
         <v>0</v>
       </c>
-      <c r="I33" t="s">
-        <v>25</v>
+      <c r="I33" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="B34" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="7">
         <v>2000</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="7">
         <v>2000</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="7">
         <v>2000</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="7">
         <v>0</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="7">
         <v>0</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="7">
         <v>0</v>
       </c>
-      <c r="I34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="6">
+      <c r="I34" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="33">
         <f>SUM(C28:C34)</f>
         <v>8179.0757705455944</v>
       </c>
-      <c r="D35" s="6">
-        <f t="shared" ref="D35:H35" si="4">SUM(D28:D34)</f>
+      <c r="D35" s="33">
+        <f t="shared" ref="D35:H35" si="5">SUM(D28:D34)</f>
         <v>12472.387726665907</v>
       </c>
-      <c r="E35" s="6">
-        <f t="shared" si="4"/>
+      <c r="E35" s="33">
+        <f t="shared" si="5"/>
         <v>13560.964575780856</v>
       </c>
-      <c r="F35" s="6">
-        <f t="shared" si="4"/>
-        <v>392.71444554868026</v>
-      </c>
-      <c r="G35" s="6">
-        <f t="shared" si="4"/>
-        <v>406.9788184301504</v>
-      </c>
-      <c r="H35" s="6">
-        <f t="shared" si="4"/>
-        <v>5567.4281279163179</v>
-      </c>
-      <c r="I35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+      <c r="F35" s="33">
+        <f t="shared" si="5"/>
+        <v>405.79444554868024</v>
+      </c>
+      <c r="G35" s="33">
+        <f t="shared" si="5"/>
+        <v>415.50925321275906</v>
+      </c>
+      <c r="H35" s="33">
+        <f t="shared" si="5"/>
+        <v>5676.4281279163179</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="4"/>
+      <c r="D37" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E37" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F37" s="13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="33">
+        <f>C35+F35</f>
+        <v>8584.8702160942739</v>
+      </c>
+      <c r="E38" s="33">
+        <f>D35+G35</f>
+        <v>12887.896979878666</v>
+      </c>
+      <c r="F38" s="33">
+        <f>E35+H35</f>
+        <v>19237.392703697173</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H41" s="36"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="16"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="34">
+        <v>0.76</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="6">
-        <f>C35+F35</f>
-        <v>8571.790216094274</v>
-      </c>
-      <c r="D40" s="6">
-        <f>D35+G35</f>
-        <v>12879.366545096058</v>
-      </c>
-      <c r="E40" s="6">
-        <f>E35+H35</f>
-        <v>19128.392703697173</v>
-      </c>
-      <c r="F40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="9">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="9">
+      <c r="C44" s="34">
         <v>0.9</v>
       </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="8"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="9">
+      <c r="B45" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="34">
         <v>0.8</v>
       </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="8"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+      <c r="B46" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="18">
+        <f>D38*D13*0.001</f>
+        <v>9.0963853998032249</v>
+      </c>
+      <c r="D46" s="18">
+        <f>E38*E13*0.001</f>
+        <v>20.938894623781202</v>
+      </c>
+      <c r="E46" s="18">
+        <f>F38*F13*0.001</f>
+        <v>2.4460344822750959</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="1">
-        <f>C40*D13*0.001</f>
-        <v>9.0825260498032243</v>
-      </c>
-      <c r="D46" s="1">
-        <f t="shared" ref="D46:E46" si="5">D40*E13*0.001</f>
-        <v>20.925035273781202</v>
-      </c>
-      <c r="E46" s="1">
-        <f t="shared" si="5"/>
-        <v>2.4321751322750957</v>
-      </c>
-      <c r="F46" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="1">
+    </row>
+    <row r="47" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="35">
         <f>C46/($C$43*$C$44*$C$45)</f>
-        <v>16.598183570546826</v>
-      </c>
-      <c r="D47" s="1">
+        <v>16.623511330049752</v>
+      </c>
+      <c r="D47" s="35">
         <f t="shared" ref="D47:E47" si="6">D46/($C$43*$C$44*$C$45)</f>
-        <v>38.240196041266813</v>
-      </c>
-      <c r="E47" s="1">
+        <v>38.265523800769742</v>
+      </c>
+      <c r="E47" s="35">
         <f t="shared" si="6"/>
-        <v>4.4447644961167683</v>
-      </c>
-      <c r="F47" t="s">
-        <v>36</v>
+        <v>4.4700922556196927</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B42:F42"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="H15:I15"/>

--- a/FogliCalcolo/ImpiantoPneumatico/ImpiantoPneumatico.xlsx
+++ b/FogliCalcolo/ImpiantoPneumatico/ImpiantoPneumatico.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Uni\Impianti meccanici\MaterialeEsame\FogliCalcolo\ImpiantoPneumatico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giona\Desktop\git\ImpiantiMeccanici\FogliCalcolo\ImpiantoPneumatico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41E8280-93B4-4B62-A4C4-F91B68603CBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E36909A-67F0-40E8-ABDD-A9DC79A3E26D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAE0CB82-2983-476A-B252-1B601C3CAAB3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
   <si>
     <t>Dati</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>m</t>
-  </si>
-  <si>
-    <t>&lt;--- scelta da catalogo</t>
   </si>
   <si>
     <t>velocità effettiva</t>
@@ -303,32 +300,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/min</t>
-    </r>
-  </si>
-  <si>
     <t>perdite tot</t>
   </si>
   <si>
@@ -380,6 +351,95 @@
       <t>m</t>
     </r>
   </si>
+  <si>
+    <t>kg/min</t>
+  </si>
+  <si>
+    <t>kg/s</t>
+  </si>
+  <si>
+    <t>&lt;--- scelte da catalogo</t>
+  </si>
+  <si>
+    <t>tab. 29.XI</t>
+  </si>
+  <si>
+    <t>impianto in pressione</t>
+  </si>
+  <si>
+    <t>conversione unità di misure pressione</t>
+  </si>
+  <si>
+    <t>1 Pa = 1 N/m2</t>
+  </si>
+  <si>
+    <t>1 bar = 100000 Pa</t>
+  </si>
+  <si>
+    <t>1 mmH2O = 9,8 Pa</t>
+  </si>
+  <si>
+    <t>1 kg/m2 = 1 mmH2O</t>
+  </si>
+  <si>
+    <t>impianto in depressione</t>
+  </si>
+  <si>
+    <r>
+      <t>ingresso</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>nota</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>**</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> coefficienti moltiplicativi perdite per ingresso nel circuito</t>
+    </r>
+  </si>
+  <si>
+    <t>valore tab. 29.X moltiplicato per il numero di gomiti</t>
+  </si>
 </sst>
 </file>
 
@@ -388,7 +448,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,6 +514,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -469,7 +544,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -557,41 +632,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -603,6 +680,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -618,13 +711,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -713,7 +872,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -812,13 +971,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>378.15073131044704</c:v>
+                  <c:v>620.04599769172125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>634.38817308267312</c:v>
+                  <c:v>917.34361018660206</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>768.56350161415617</c:v>
+                  <c:v>4988.7818256361661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -834,7 +993,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Design1!$AF$9</c:f>
+              <c:f>Design1!$AF$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -873,18 +1032,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Design1!$AG$9:$AI$9</c:f>
+              <c:f>Design1!$AG$10:$AI$10</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1504.4598535596256</c:v>
+                  <c:v>2263.3846908746746</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2530.6368732819046</c:v>
+                  <c:v>3431.2270860769895</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2982.478264895924</c:v>
+                  <c:v>15876.659492181549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -900,7 +1059,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Design1!$AF$10</c:f>
+              <c:f>Design1!$AF$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -939,18 +1098,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Design1!$AG$10:$AI$10</c:f>
+              <c:f>Design1!$AG$11:$AI$11</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>65.72462071607336</c:v>
+                  <c:v>339.12303686237613</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.113606225150278</c:v>
+                  <c:v>510.04203329764027</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>566.08775889349545</c:v>
+                  <c:v>3948.0399353004791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -966,7 +1125,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Design1!$AF$11</c:f>
+              <c:f>Design1!$AF$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1005,7 +1164,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Design1!$AG$11:$AI$11</c:f>
+              <c:f>Design1!$AG$12:$AI$12</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1032,7 +1191,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Design1!$AF$12</c:f>
+              <c:f>Design1!$AF$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1071,18 +1230,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Design1!$AG$12:$AI$12</c:f>
+              <c:f>Design1!$AG$13:$AI$13</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>910.29841422528466</c:v>
+                  <c:v>992.0735963067541</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1355.9739173848675</c:v>
+                  <c:v>1467.7497762985636</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5934.3855777590434</c:v>
+                  <c:v>7982.050921017867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1098,7 +1257,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Design1!$AF$13</c:f>
+              <c:f>Design1!$AF$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1137,18 +1296,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Design1!$AG$13:$AI$13</c:f>
+              <c:f>Design1!$AG$14:$AI$14</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3700.0765962828441</c:v>
+                  <c:v>4032.4669779951105</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6274.7235403388531</c:v>
+                  <c:v>6791.9625551718309</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6767.8776005345544</c:v>
+                  <c:v>9103.1401527304824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1164,7 +1323,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Design1!$AF$14</c:f>
+              <c:f>Design1!$AF$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1205,7 +1364,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Design1!$AG$14:$AI$14</c:f>
+              <c:f>Design1!$AG$15:$AI$15</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1213,10 +1372,10 @@
                   <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>2002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1276,7 +1435,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="62098912"/>
@@ -1358,7 +1517,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1390,7 +1549,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="62105984"/>
@@ -1432,7 +1591,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1462,7 +1621,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2013,13 +2172,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>54664</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>182218</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>101254</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2345,48 +2504,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17ABF7C-F85F-4D3F-BF5C-441A2CA8C12E}">
-  <dimension ref="B2:AI53"/>
+  <dimension ref="B2:AI54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="J3" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="51"/>
+      <c r="M3" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="55"/>
+      <c r="O3" s="56"/>
     </row>
     <row r="4" spans="3:35" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="6">
+        <v>650</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="59"/>
+    </row>
+    <row r="5" spans="3:35" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="C5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="7">
-        <v>650</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="3:35" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="C5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>1.24</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>41</v>
+      <c r="E5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="47"/>
+      <c r="M5" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="60">
+        <v>3</v>
       </c>
       <c r="AG5" t="s">
         <v>2</v>
@@ -2398,822 +2592,891 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="C6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="7">
+    <row r="6" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6">
         <v>2543</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>22</v>
+      <c r="E6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="47"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="60">
+        <v>4</v>
       </c>
       <c r="AF6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG6" s="1">
-        <f>C28+F28</f>
-        <v>378.15073131044704</v>
+        <f>C29+F29</f>
+        <v>620.04599769172125</v>
       </c>
       <c r="AH6" s="1">
-        <f>D28+G28</f>
-        <v>634.38817308267312</v>
+        <f>D29+G29</f>
+        <v>917.34361018660206</v>
       </c>
       <c r="AI6" s="1">
-        <f>E28+H28</f>
-        <v>768.56350161415617</v>
-      </c>
-    </row>
-    <row r="7" spans="3:35" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C7" s="9"/>
-      <c r="D7" s="7">
+        <f>E29+H29</f>
+        <v>4988.7818256361661</v>
+      </c>
+    </row>
+    <row r="7" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C7" s="36"/>
+      <c r="D7" s="6">
         <f>D6/60</f>
         <v>42.383333333333333</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>43</v>
+      <c r="E7" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="G7" s="2"/>
+      <c r="J7" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="M7" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" s="60">
+        <v>3</v>
+      </c>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
     </row>
-    <row r="8" spans="3:35" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="10"/>
-      <c r="D8" s="11">
+    <row r="8" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="36"/>
+      <c r="D8" s="6">
         <f>D6/3600</f>
         <v>0.70638888888888884</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>42</v>
+      <c r="E8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="49"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="61">
+        <v>2</v>
       </c>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
     </row>
-    <row r="9" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AF9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG9" s="1">
-        <f t="shared" ref="AG9:AI15" si="0">C29+F29</f>
-        <v>1504.4598535596256</v>
-      </c>
-      <c r="AH9" s="1">
-        <f t="shared" si="0"/>
-        <v>2530.6368732819046</v>
-      </c>
-      <c r="AI9" s="1">
-        <f t="shared" si="0"/>
-        <v>2982.478264895924</v>
-      </c>
-    </row>
-    <row r="10" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="C10" s="4"/>
-      <c r="D10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="5"/>
+    <row r="9" spans="3:35" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="37"/>
+      <c r="D9" s="8">
+        <f>D8/D4</f>
+        <v>1.0867521367521366E-3</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+    </row>
+    <row r="10" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AF10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG10" s="1">
-        <f t="shared" si="0"/>
-        <v>65.72462071607336</v>
+        <f t="shared" ref="AG10:AI16" si="0">C30+F30</f>
+        <v>2263.3846908746746</v>
       </c>
       <c r="AH10" s="1">
         <f t="shared" si="0"/>
-        <v>75.113606225150278</v>
+        <v>3431.2270860769895</v>
       </c>
       <c r="AI10" s="1">
         <f t="shared" si="0"/>
-        <v>566.08775889349545</v>
+        <v>15876.659492181549</v>
       </c>
     </row>
     <row r="11" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="C11" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="18">
-        <v>1.5</v>
-      </c>
-      <c r="E11" s="18">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F11" s="18">
-        <v>0.18</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4"/>
       <c r="AF11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG11" s="1">
         <f t="shared" si="0"/>
-        <v>26.16</v>
+        <v>339.12303686237613</v>
       </c>
       <c r="AH11" s="1">
         <f t="shared" si="0"/>
-        <v>17.060869565217391</v>
+        <v>510.04203329764027</v>
       </c>
       <c r="AI11" s="1">
         <f t="shared" si="0"/>
+        <v>3948.0399353004791</v>
+      </c>
+    </row>
+    <row r="12" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="E12" s="12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG12" s="1">
+        <f t="shared" si="0"/>
+        <v>26.16</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="0"/>
+        <v>17.060869565217391</v>
+      </c>
+      <c r="AI12" s="1">
+        <f t="shared" si="0"/>
         <v>217.99999999999997</v>
       </c>
     </row>
-    <row r="12" spans="3:35" ht="18" x14ac:dyDescent="0.35">
-      <c r="C12" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="18">
+    <row r="13" spans="3:35" ht="18" x14ac:dyDescent="0.35">
+      <c r="C13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="12">
         <f>0.9*D4^0.5</f>
         <v>22.945587811167531</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E13" s="12">
         <v>29.7</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F13" s="12">
         <v>28</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AF12" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG12" s="1">
-        <f t="shared" si="0"/>
-        <v>910.29841422528466</v>
-      </c>
-      <c r="AH12" s="1">
-        <f t="shared" si="0"/>
-        <v>1355.9739173848675</v>
-      </c>
-      <c r="AI12" s="1">
-        <f t="shared" si="0"/>
-        <v>5934.3855777590434</v>
-      </c>
-    </row>
-    <row r="13" spans="3:35" ht="18" x14ac:dyDescent="0.35">
-      <c r="C13" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="18">
-        <f>D11*$D$6/3600</f>
-        <v>1.0595833333333333</v>
-      </c>
-      <c r="E13" s="18">
-        <f>E11*$D$6/3600</f>
-        <v>1.6246944444444444</v>
-      </c>
-      <c r="F13" s="18">
-        <f>F11*$D$6/3600</f>
-        <v>0.12715000000000001</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="AF13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AG13" s="1">
         <f t="shared" si="0"/>
-        <v>3700.0765962828441</v>
+        <v>992.0735963067541</v>
       </c>
       <c r="AH13" s="1">
         <f t="shared" si="0"/>
-        <v>6274.7235403388531</v>
+        <v>1467.7497762985636</v>
       </c>
       <c r="AI13" s="1">
         <f t="shared" si="0"/>
-        <v>6767.8776005345544</v>
+        <v>7982.050921017867</v>
       </c>
     </row>
     <row r="14" spans="3:35" ht="18" x14ac:dyDescent="0.35">
-      <c r="C14" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="19">
-        <f>(4*D13/(PI()*D12))^0.5</f>
-        <v>0.24247838157685256</v>
-      </c>
-      <c r="E14" s="19">
-        <v>0.26</v>
-      </c>
-      <c r="F14" s="19">
-        <f t="shared" ref="F14" si="1">(4*F13/(PI()*F12))^0.5</f>
-        <v>7.6038619913331815E-2</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>8</v>
+      <c r="C14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="12">
+        <f>D12*$D$6/3600</f>
+        <v>1.0595833333333333</v>
+      </c>
+      <c r="E14" s="12">
+        <f>E12*$D$6/3600</f>
+        <v>1.6246944444444444</v>
+      </c>
+      <c r="F14" s="12">
+        <f>F12*$D$6/3600</f>
+        <v>0.12715000000000001</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="AF14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG14" s="1">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>4032.4669779951105</v>
       </c>
       <c r="AH14" s="1">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>6791.9625551718309</v>
       </c>
       <c r="AI14" s="1">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>9103.1401527304824</v>
       </c>
     </row>
     <row r="15" spans="3:35" ht="18" x14ac:dyDescent="0.35">
-      <c r="C15" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="21">
-        <v>0.24</v>
-      </c>
-      <c r="E15" s="21">
+      <c r="C15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="13">
+        <f>(4*D14/(PI()*D13))^0.5</f>
+        <v>0.24247838157685256</v>
+      </c>
+      <c r="E15" s="13">
         <v>0.26</v>
       </c>
-      <c r="F15" s="21">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G15" s="22" t="s">
+      <c r="F15" s="13">
+        <f t="shared" ref="F15" si="1">(4*F14/(PI()*F13))^0.5</f>
+        <v>7.6038619913331815E-2</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="3"/>
       <c r="AF15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AG15" s="1">
         <f t="shared" si="0"/>
-        <v>8584.8702160942739</v>
+        <v>2000</v>
       </c>
       <c r="AH15" s="1">
         <f t="shared" si="0"/>
-        <v>12887.896979878666</v>
+        <v>2001</v>
       </c>
       <c r="AI15" s="1">
         <f t="shared" si="0"/>
-        <v>19237.392703697173</v>
-      </c>
-    </row>
-    <row r="16" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="C16" s="20" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="16" spans="3:35" ht="18" x14ac:dyDescent="0.35">
+      <c r="C16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0.24</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0.26</v>
+      </c>
+      <c r="F16" s="15">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="41"/>
+      <c r="AF16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG16" s="1">
+        <f t="shared" si="0"/>
+        <v>10273.254299730637</v>
+      </c>
+      <c r="AH16" s="1">
+        <f t="shared" si="0"/>
+        <v>15136.385930596844</v>
+      </c>
+      <c r="AI16" s="1">
+        <f t="shared" si="0"/>
+        <v>44118.672326866545</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E17" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F17" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="38"/>
+      <c r="I17" s="41"/>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="18">
+        <f>4*D14/(PI()*(D16-2*D17)^2)</f>
+        <v>25.502899828776936</v>
+      </c>
+      <c r="E18" s="18">
+        <f t="shared" ref="E18:F18" si="2">4*E14/(PI()*(E16-2*E17)^2)</f>
+        <v>33.09800343645108</v>
+      </c>
+      <c r="F18" s="18">
+        <f t="shared" si="2"/>
+        <v>38.317729730905548</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="35"/>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="21">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E16" s="21">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F16" s="21">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G16" s="22" t="s">
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="32"/>
+    </row>
+    <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B21" s="11"/>
+      <c r="C21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="24">
-        <f>4*D13/(PI()*(D15-D16)^2)</f>
-        <v>24.429215046487997</v>
-      </c>
-      <c r="E17" s="24">
-        <f t="shared" ref="E17:F17" si="2">4*E13/(PI()*(E15-E16)^2)</f>
-        <v>31.812767624424339</v>
-      </c>
-      <c r="F17" s="24">
-        <f t="shared" si="2"/>
-        <v>33.039266961852242</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="26" t="s">
+      <c r="E21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28"/>
-    </row>
-    <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B20" s="17"/>
-      <c r="C20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="7">
-        <v>8</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B21" s="17"/>
-      <c r="C21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="7">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B22" s="11"/>
+      <c r="C22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="6">
         <v>4</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="17"/>
-      <c r="C22" s="7" t="s">
+      <c r="E22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="11"/>
+      <c r="C23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="6">
+        <v>4</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+      <c r="C24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+      <c r="C25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
+      <c r="C27" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="11"/>
+      <c r="C28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="20">
+        <f>$D$5*D18^2/2</f>
+        <v>403.24669779951103</v>
+      </c>
+      <c r="D29" s="20">
+        <f t="shared" ref="D29:E29" si="3">$D$5*E18^2/2</f>
+        <v>679.19625551718309</v>
+      </c>
+      <c r="E29" s="20">
+        <f t="shared" si="3"/>
+        <v>910.3140152730482</v>
+      </c>
+      <c r="F29" s="45">
+        <f>$D$6/3600/D14*D18^2/2</f>
+        <v>216.79929989221023</v>
+      </c>
+      <c r="G29" s="20">
+        <f t="shared" ref="G29:H29" si="4">$D$6/3600/E14*E18^2/2</f>
+        <v>238.14735466941903</v>
+      </c>
+      <c r="H29" s="20">
+        <f t="shared" si="4"/>
+        <v>4078.4678103631181</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="20">
+        <f>4*C29</f>
+        <v>1612.9867911980441</v>
+      </c>
+      <c r="D30" s="20">
+        <f t="shared" ref="D30:E30" si="5">4*D29</f>
+        <v>2716.7850220687324</v>
+      </c>
+      <c r="E30" s="20">
+        <f t="shared" si="5"/>
+        <v>3641.2560610921928</v>
+      </c>
+      <c r="F30" s="45">
+        <f>3*F29</f>
+        <v>650.39789967663069</v>
+      </c>
+      <c r="G30" s="20">
+        <f t="shared" ref="G30:H30" si="6">3*G29</f>
+        <v>714.44206400825715</v>
+      </c>
+      <c r="H30" s="20">
+        <f t="shared" si="6"/>
+        <v>12235.403431089355</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="20">
+        <f>0.000812*$D$5^0.85*D18^2/(D16-2*D17)^1.3*$D$21*9.81</f>
+        <v>336.24543686237615</v>
+      </c>
+      <c r="D31" s="20">
+        <f t="shared" ref="D31:E31" si="7">0.000812*$D$5^0.85*E18^2/(E16-2*E17)^1.3*$D$21*9.81</f>
+        <v>508.16533764546637</v>
+      </c>
+      <c r="E31" s="20">
+        <f t="shared" si="7"/>
+        <v>3924.0599353004791</v>
+      </c>
+      <c r="F31" s="45">
+        <f>0.2*$D$24*$D$6/3600/D14*$D$22*9.81</f>
+        <v>2.8776000000000006</v>
+      </c>
+      <c r="G31" s="20">
+        <f t="shared" ref="G31:H31" si="8">0.2*$D$24*$D$6/3600/E14*$D$22*9.81</f>
+        <v>1.8766956521739135</v>
+      </c>
+      <c r="H31" s="20">
+        <f t="shared" si="8"/>
+        <v>23.980000000000004</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="20">
+        <v>0</v>
+      </c>
+      <c r="D32" s="20">
+        <v>0</v>
+      </c>
+      <c r="E32" s="20">
+        <v>0</v>
+      </c>
+      <c r="F32" s="45">
+        <f>$D$6/3600/D14*$D$23*9.81</f>
+        <v>26.16</v>
+      </c>
+      <c r="G32" s="20">
+        <f>$D$6/3600/E14*$D$23*9.81</f>
+        <v>17.060869565217391</v>
+      </c>
+      <c r="H32" s="20">
+        <f>$D$6/3600/F14*$D$23*9.81</f>
+        <v>217.99999999999997</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="20">
+        <f>$D$25*$D$5*D18^2/2</f>
+        <v>645.19471647921762</v>
+      </c>
+      <c r="D33" s="20">
+        <f t="shared" ref="D33:E33" si="9">$D$25*$D$5*E18^2/2</f>
+        <v>1086.714008827493</v>
+      </c>
+      <c r="E33" s="20">
+        <f t="shared" si="9"/>
+        <v>1456.5024244368772</v>
+      </c>
+      <c r="F33" s="45">
+        <f>C33*$D$6/(3600*$D$5*D14)</f>
+        <v>346.87887982753642</v>
+      </c>
+      <c r="G33" s="20">
+        <f t="shared" ref="G33:H33" si="10">D33*$D$6/(3600*$D$5*E14)</f>
+        <v>381.03576747107047</v>
+      </c>
+      <c r="H33" s="20">
+        <f t="shared" si="10"/>
+        <v>6525.5484965809901</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="20">
+        <f>10*$D$5*D18^2/2</f>
+        <v>4032.4669779951105</v>
+      </c>
+      <c r="D34" s="20">
+        <f t="shared" ref="D34:E34" si="11">10*$D$5*E18^2/2</f>
+        <v>6791.9625551718309</v>
+      </c>
+      <c r="E34" s="20">
+        <f t="shared" si="11"/>
+        <v>9103.1401527304824</v>
+      </c>
+      <c r="F34" s="45">
+        <v>0</v>
+      </c>
+      <c r="G34" s="20">
+        <v>0</v>
+      </c>
+      <c r="H34" s="20">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D35" s="6">
+        <v>2001</v>
+      </c>
+      <c r="E35" s="6">
+        <v>2002</v>
+      </c>
+      <c r="F35" s="44">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="22">
+        <f>SUM(C29:C35)</f>
+        <v>9030.1406203342594</v>
+      </c>
+      <c r="D36" s="22">
+        <f t="shared" ref="D36:E36" si="12">SUM(D29:D35)</f>
+        <v>13783.823179230705</v>
+      </c>
+      <c r="E36" s="22">
+        <f t="shared" si="12"/>
+        <v>21037.272588833082</v>
+      </c>
+      <c r="F36" s="46">
+        <f>SUM(F29:F35)</f>
+        <v>1243.1136793963774</v>
+      </c>
+      <c r="G36" s="22">
+        <f t="shared" ref="D36:H36" si="13">SUM(G29:G35)</f>
+        <v>1352.5627513661379</v>
+      </c>
+      <c r="H36" s="22">
+        <f t="shared" si="13"/>
+        <v>23081.399738033462</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="3"/>
+      <c r="D38" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="22">
+        <f>C36+F36</f>
+        <v>10273.254299730637</v>
+      </c>
+      <c r="E39" s="22">
+        <f>D36+G36</f>
+        <v>15136.385930596844</v>
+      </c>
+      <c r="F39" s="22">
+        <f>E36+H36</f>
+        <v>44118.672326866545</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H42" s="25"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="29"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="23">
+        <v>0.76</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="12">
+        <f>D39*D14*0.001</f>
+        <v>10.885369035089587</v>
+      </c>
+      <c r="D47" s="12">
+        <f>E39*E14*0.001</f>
+        <v>24.592002130407746</v>
+      </c>
+      <c r="E47" s="12">
+        <f>F39*F14*0.001</f>
+        <v>5.6096891863610816</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="7">
-        <v>4</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="17"/>
-      <c r="C23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="17"/>
-      <c r="C24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1.6</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="17"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="17"/>
-      <c r="C26" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="17"/>
-      <c r="C27" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="8"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="31">
-        <f>$D$5*D17^2/2</f>
-        <v>370.00765962828439</v>
-      </c>
-      <c r="D28" s="31">
-        <f>$D$5*E17^2/2</f>
-        <v>627.47235403388527</v>
-      </c>
-      <c r="E28" s="31">
-        <f>$D$5*F17^2/2</f>
-        <v>676.78776005345549</v>
-      </c>
-      <c r="F28" s="31">
-        <f>$D$6/3600/D13*D17/2</f>
-        <v>8.143071682162665</v>
-      </c>
-      <c r="G28" s="31">
-        <f>$D$6/3600/E13*E17/2</f>
-        <v>6.9158190487878999</v>
-      </c>
-      <c r="H28" s="31">
-        <f>$D$6/3600/F13*F17/2</f>
-        <v>91.775741560700652</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="31">
-        <f>4*C28</f>
-        <v>1480.0306385131375</v>
-      </c>
-      <c r="D29" s="31">
-        <f t="shared" ref="D29:E29" si="3">4*D28</f>
-        <v>2509.8894161355411</v>
-      </c>
-      <c r="E29" s="31">
-        <f t="shared" si="3"/>
-        <v>2707.1510402138219</v>
-      </c>
-      <c r="F29" s="31">
-        <f>3*F28</f>
-        <v>24.429215046487997</v>
-      </c>
-      <c r="G29" s="31">
-        <f t="shared" ref="G29:H29" si="4">3*G28</f>
-        <v>20.747457146363701</v>
-      </c>
-      <c r="H29" s="31">
-        <f t="shared" si="4"/>
-        <v>275.32722468210193</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="31">
-        <f>0.0001*$D$5^0.85*D17^2/(D15-D16)^1.3*$D$20*9.81</f>
-        <v>36.948620716073357</v>
-      </c>
-      <c r="D30" s="31">
-        <f>0.0001*$D$5^0.85*E17^2/(E15-E16)^1.3*$D$20*9.81</f>
-        <v>56.346649703411146</v>
-      </c>
-      <c r="E30" s="31">
-        <f>0.0001*$D$5^0.85*F17^2/(F15-F16)^1.3*$D$20*9.81</f>
-        <v>326.28775889349544</v>
-      </c>
-      <c r="F30" s="31">
-        <f>2*$D$23*$D$6/3600/D13*$D$21*9.81</f>
-        <v>28.776000000000003</v>
-      </c>
-      <c r="G30" s="31">
-        <f>2*$D$23*$D$6/3600/E13*$D$21*9.81</f>
-        <v>18.766956521739136</v>
-      </c>
-      <c r="H30" s="31">
-        <f>2*$D$23*$D$6/3600/F13*$D$21*9.81</f>
-        <v>239.80000000000004</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="31">
-        <v>0</v>
-      </c>
-      <c r="D31" s="31">
-        <v>0</v>
-      </c>
-      <c r="E31" s="31">
-        <v>0</v>
-      </c>
-      <c r="F31" s="31">
-        <f>$D$6/3600/D13*$D$22*9.81</f>
-        <v>26.16</v>
-      </c>
-      <c r="G31" s="31">
-        <f>$D$6/3600/E13*$D$22*9.81</f>
-        <v>17.060869565217391</v>
-      </c>
-      <c r="H31" s="31">
-        <f>$D$6/3600/F13*$D$22*9.81</f>
-        <v>217.99999999999997</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="31">
-        <f>$D$24*$D$5*D17^2/2</f>
-        <v>592.01225540525502</v>
-      </c>
-      <c r="D32" s="31">
-        <f>$D$24*$D$5*E17^2/2</f>
-        <v>1003.9557664542165</v>
-      </c>
-      <c r="E32" s="31">
-        <f>$D$24*$D$5*F17^2/2</f>
-        <v>1082.8604160855286</v>
-      </c>
-      <c r="F32" s="31">
-        <f>C32*$D$6/3600/$D$5/D13</f>
-        <v>318.28615882002958</v>
-      </c>
-      <c r="G32" s="31">
-        <f>D32*$D$6/3600/$D$5/E13</f>
-        <v>352.01815093065096</v>
-      </c>
-      <c r="H32" s="31">
-        <f>E32*$D$6/3600/$D$5/F13</f>
-        <v>4851.525161673515</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="31">
-        <f>10*$D$5*D17^2/2</f>
-        <v>3700.0765962828441</v>
-      </c>
-      <c r="D33" s="31">
-        <f>10*$D$5*E17^2/2</f>
-        <v>6274.7235403388531</v>
-      </c>
-      <c r="E33" s="31">
-        <f>10*$D$5*F17^2/2</f>
-        <v>6767.8776005345544</v>
-      </c>
-      <c r="F33" s="31">
-        <v>0</v>
-      </c>
-      <c r="G33" s="31">
-        <v>0</v>
-      </c>
-      <c r="H33" s="31">
-        <v>0</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="7">
-        <v>2000</v>
-      </c>
-      <c r="D34" s="7">
-        <v>2000</v>
-      </c>
-      <c r="E34" s="7">
-        <v>2000</v>
-      </c>
-      <c r="F34" s="7">
-        <v>0</v>
-      </c>
-      <c r="G34" s="7">
-        <v>0</v>
-      </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="33">
-        <f>SUM(C28:C34)</f>
-        <v>8179.0757705455944</v>
-      </c>
-      <c r="D35" s="33">
-        <f t="shared" ref="D35:H35" si="5">SUM(D28:D34)</f>
-        <v>12472.387726665907</v>
-      </c>
-      <c r="E35" s="33">
-        <f t="shared" si="5"/>
-        <v>13560.964575780856</v>
-      </c>
-      <c r="F35" s="33">
-        <f t="shared" si="5"/>
-        <v>405.79444554868024</v>
-      </c>
-      <c r="G35" s="33">
-        <f t="shared" si="5"/>
-        <v>415.50925321275906</v>
-      </c>
-      <c r="H35" s="33">
-        <f t="shared" si="5"/>
-        <v>5676.4281279163179</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="4"/>
-      <c r="D37" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="33">
-        <f>C35+F35</f>
-        <v>8584.8702160942739</v>
-      </c>
-      <c r="E38" s="33">
-        <f>D35+G35</f>
-        <v>12887.896979878666</v>
-      </c>
-      <c r="F38" s="33">
-        <f>E35+H35</f>
-        <v>19237.392703697173</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H41" s="36"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="16"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="34">
-        <v>0.76</v>
-      </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="34">
-        <v>0.9</v>
-      </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="17" t="s">
+      <c r="C48" s="24">
+        <f>C47/($C$44*$C$45*$C$46)</f>
+        <v>19.892852768804069</v>
+      </c>
+      <c r="D48" s="24">
+        <f t="shared" ref="D48:E48" si="14">D47/($C$44*$C$45*$C$46)</f>
+        <v>44.941524361125268</v>
+      </c>
+      <c r="E48" s="24">
+        <f t="shared" si="14"/>
+        <v>10.251624975075076</v>
+      </c>
+      <c r="F48" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="18">
-        <f>D38*D13*0.001</f>
-        <v>9.0963853998032249</v>
-      </c>
-      <c r="D46" s="18">
-        <f>E38*E13*0.001</f>
-        <v>20.938894623781202</v>
-      </c>
-      <c r="E46" s="18">
-        <f>F38*F13*0.001</f>
-        <v>2.4460344822750959</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="35">
-        <f>C46/($C$43*$C$44*$C$45)</f>
-        <v>16.623511330049752</v>
-      </c>
-      <c r="D47" s="35">
-        <f t="shared" ref="D47:E47" si="6">D46/($C$43*$C$44*$C$45)</f>
-        <v>38.265523800769742</v>
-      </c>
-      <c r="E47" s="35">
-        <f t="shared" si="6"/>
-        <v>4.4700922556196927</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="17">
+    <mergeCell ref="M3:O4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="H16:I17"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FogliCalcolo/ImpiantoPneumatico/ImpiantoPneumatico.xlsx
+++ b/FogliCalcolo/ImpiantoPneumatico/ImpiantoPneumatico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giona\Desktop\git\ImpiantiMeccanici\FogliCalcolo\ImpiantoPneumatico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E36909A-67F0-40E8-ABDD-A9DC79A3E26D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4422352-822B-4757-B783-11D02B6603FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAE0CB82-2983-476A-B252-1B601C3CAAB3}"/>
   </bookViews>
@@ -530,7 +530,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,6 +540,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,7 +663,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -675,7 +681,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -683,82 +688,18 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -778,12 +719,79 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2507,7 +2515,7 @@
   <dimension ref="B2:AI54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2528,58 +2536,58 @@
   <sheetData>
     <row r="2" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="J3" s="50" t="s">
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="J3" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="51"/>
-      <c r="M3" s="54" t="s">
+      <c r="K3" s="41"/>
+      <c r="M3" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="55"/>
-      <c r="O3" s="56"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
     </row>
     <row r="4" spans="3:35" ht="18.75" x14ac:dyDescent="0.35">
       <c r="C4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="60">
         <v>650</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="59"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="43"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="36"/>
     </row>
     <row r="5" spans="3:35" ht="18.75" x14ac:dyDescent="0.35">
       <c r="C5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="60">
         <v>1.24</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="47"/>
-      <c r="M5" s="38" t="s">
+      <c r="K5" s="45"/>
+      <c r="M5" s="37" t="s">
         <v>13</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="60">
+      <c r="O5" s="29">
         <v>3</v>
       </c>
       <c r="AG5" t="s">
@@ -2593,24 +2601,24 @@
       </c>
     </row>
     <row r="6" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="60">
         <v>2543</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="40" t="s">
+      <c r="J6" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="M6" s="38"/>
+      <c r="K6" s="45"/>
+      <c r="M6" s="37"/>
       <c r="N6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="O6" s="60">
+      <c r="O6" s="29">
         <v>4</v>
       </c>
       <c r="AF6" t="s">
@@ -2630,7 +2638,7 @@
       </c>
     </row>
     <row r="7" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="C7" s="36"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="6">
         <f>D6/60</f>
         <v>42.383333333333333</v>
@@ -2639,17 +2647,17 @@
         <v>47</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="47"/>
-      <c r="M7" s="38" t="s">
+      <c r="K7" s="45"/>
+      <c r="M7" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="60">
+      <c r="O7" s="29">
         <v>3</v>
       </c>
       <c r="AG7" s="1"/>
@@ -2657,7 +2665,7 @@
       <c r="AI7" s="1"/>
     </row>
     <row r="8" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="36"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="6">
         <f>D6/3600</f>
         <v>0.70638888888888884</v>
@@ -2665,15 +2673,15 @@
       <c r="E8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="48" t="s">
+      <c r="J8" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="49"/>
-      <c r="M8" s="39"/>
+      <c r="K8" s="47"/>
+      <c r="M8" s="38"/>
       <c r="N8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="O8" s="61">
+      <c r="O8" s="30">
         <v>2</v>
       </c>
       <c r="AG8" s="1"/>
@@ -2681,7 +2689,7 @@
       <c r="AI8" s="1"/>
     </row>
     <row r="9" spans="3:35" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="37"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="8">
         <f>D8/D4</f>
         <v>1.0867521367521366E-3</v>
@@ -2742,13 +2750,13 @@
       <c r="C12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="61">
         <v>1.5</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="61">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="61">
         <v>0.18</v>
       </c>
       <c r="G12" s="7" t="s">
@@ -2876,22 +2884,22 @@
       <c r="C16" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="60">
         <v>0.24</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="60">
         <v>0.26</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="60">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="41"/>
+      <c r="I16" s="59"/>
       <c r="AF16" t="s">
         <v>25</v>
       </c>
@@ -2912,64 +2920,64 @@
       <c r="C17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="60">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="60">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="60">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="38"/>
-      <c r="I17" s="41"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="59"/>
     </row>
     <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="17">
         <f>4*D14/(PI()*(D16-2*D17)^2)</f>
         <v>25.502899828776936</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="17">
         <f t="shared" ref="E18:F18" si="2">4*E14/(PI()*(E16-2*E17)^2)</f>
         <v>33.09800343645108</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="17">
         <f t="shared" si="2"/>
         <v>38.317729730905548</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="35" t="s">
+      <c r="H18" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="35"/>
+      <c r="I18" s="56"/>
     </row>
     <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="32"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="53"/>
     </row>
     <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B21" s="11"/>
       <c r="C21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="60">
         <v>8</v>
       </c>
       <c r="E21" s="6" t="s">
@@ -2985,13 +2993,13 @@
       <c r="C22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="60">
         <v>4</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="26"/>
+      <c r="F22" s="24"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="7"/>
@@ -3001,7 +3009,7 @@
       <c r="C23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="60">
         <v>4</v>
       </c>
       <c r="E23" s="6" t="s">
@@ -3017,10 +3025,10 @@
       <c r="C24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="60">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="25" t="s">
         <v>50</v>
       </c>
       <c r="F24" s="6"/>
@@ -3033,15 +3041,15 @@
       <c r="C25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="60">
         <v>1.6</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
       <c r="I25" s="7"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
@@ -3056,16 +3064,16 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="43" t="s">
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -3079,7 +3087,7 @@
       <c r="E28" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="44" t="s">
+      <c r="F28" s="26" t="s">
         <v>2</v>
       </c>
       <c r="G28" s="6" t="s">
@@ -3094,27 +3102,27 @@
       <c r="B29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="19">
         <f>$D$5*D18^2/2</f>
         <v>403.24669779951103</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="19">
         <f t="shared" ref="D29:E29" si="3">$D$5*E18^2/2</f>
         <v>679.19625551718309</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="19">
         <f t="shared" si="3"/>
         <v>910.3140152730482</v>
       </c>
-      <c r="F29" s="45">
+      <c r="F29" s="27">
         <f>$D$6/3600/D14*D18^2/2</f>
         <v>216.79929989221023</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="19">
         <f t="shared" ref="G29:H29" si="4">$D$6/3600/E14*E18^2/2</f>
         <v>238.14735466941903</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="19">
         <f t="shared" si="4"/>
         <v>4078.4678103631181</v>
       </c>
@@ -3126,27 +3134,27 @@
       <c r="B30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="19">
         <f>4*C29</f>
         <v>1612.9867911980441</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="19">
         <f t="shared" ref="D30:E30" si="5">4*D29</f>
         <v>2716.7850220687324</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="19">
         <f t="shared" si="5"/>
         <v>3641.2560610921928</v>
       </c>
-      <c r="F30" s="45">
+      <c r="F30" s="27">
         <f>3*F29</f>
         <v>650.39789967663069</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G30" s="19">
         <f t="shared" ref="G30:H30" si="6">3*G29</f>
         <v>714.44206400825715</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="19">
         <f t="shared" si="6"/>
         <v>12235.403431089355</v>
       </c>
@@ -3158,27 +3166,27 @@
       <c r="B31" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="19">
         <f>0.000812*$D$5^0.85*D18^2/(D16-2*D17)^1.3*$D$21*9.81</f>
         <v>336.24543686237615</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="19">
         <f t="shared" ref="D31:E31" si="7">0.000812*$D$5^0.85*E18^2/(E16-2*E17)^1.3*$D$21*9.81</f>
         <v>508.16533764546637</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="19">
         <f t="shared" si="7"/>
         <v>3924.0599353004791</v>
       </c>
-      <c r="F31" s="45">
+      <c r="F31" s="27">
         <f>0.2*$D$24*$D$6/3600/D14*$D$22*9.81</f>
         <v>2.8776000000000006</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="19">
         <f t="shared" ref="G31:H31" si="8">0.2*$D$24*$D$6/3600/E14*$D$22*9.81</f>
         <v>1.8766956521739135</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="19">
         <f t="shared" si="8"/>
         <v>23.980000000000004</v>
       </c>
@@ -3190,24 +3198,24 @@
       <c r="B32" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="62">
         <v>0</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="19">
         <v>0</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="19">
         <v>0</v>
       </c>
-      <c r="F32" s="45">
+      <c r="F32" s="27">
         <f>$D$6/3600/D14*$D$23*9.81</f>
         <v>26.16</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="19">
         <f>$D$6/3600/E14*$D$23*9.81</f>
         <v>17.060869565217391</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="19">
         <f>$D$6/3600/F14*$D$23*9.81</f>
         <v>217.99999999999997</v>
       </c>
@@ -3219,27 +3227,27 @@
       <c r="B33" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="19">
         <f>$D$25*$D$5*D18^2/2</f>
         <v>645.19471647921762</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="19">
         <f t="shared" ref="D33:E33" si="9">$D$25*$D$5*E18^2/2</f>
         <v>1086.714008827493</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="19">
         <f t="shared" si="9"/>
         <v>1456.5024244368772</v>
       </c>
-      <c r="F33" s="45">
+      <c r="F33" s="27">
         <f>C33*$D$6/(3600*$D$5*D14)</f>
         <v>346.87887982753642</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G33" s="19">
         <f t="shared" ref="G33:H33" si="10">D33*$D$6/(3600*$D$5*E14)</f>
         <v>381.03576747107047</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H33" s="19">
         <f t="shared" si="10"/>
         <v>6525.5484965809901</v>
       </c>
@@ -3251,25 +3259,25 @@
       <c r="B34" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="19">
         <f>10*$D$5*D18^2/2</f>
         <v>4032.4669779951105</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="19">
         <f t="shared" ref="D34:E34" si="11">10*$D$5*E18^2/2</f>
         <v>6791.9625551718309</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="19">
         <f t="shared" si="11"/>
         <v>9103.1401527304824</v>
       </c>
-      <c r="F34" s="45">
+      <c r="F34" s="27">
         <v>0</v>
       </c>
-      <c r="G34" s="20">
+      <c r="G34" s="19">
         <v>0</v>
       </c>
-      <c r="H34" s="20">
+      <c r="H34" s="19">
         <v>0</v>
       </c>
       <c r="I34" s="7" t="s">
@@ -3289,7 +3297,7 @@
       <c r="E35" s="6">
         <v>2002</v>
       </c>
-      <c r="F35" s="44">
+      <c r="F35" s="26">
         <v>0</v>
       </c>
       <c r="G35" s="6">
@@ -3303,30 +3311,30 @@
       </c>
     </row>
     <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C36" s="21">
         <f>SUM(C29:C35)</f>
         <v>9030.1406203342594</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="21">
         <f t="shared" ref="D36:E36" si="12">SUM(D29:D35)</f>
         <v>13783.823179230705</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E36" s="21">
         <f t="shared" si="12"/>
         <v>21037.272588833082</v>
       </c>
-      <c r="F36" s="46">
+      <c r="F36" s="28">
         <f>SUM(F29:F35)</f>
         <v>1243.1136793963774</v>
       </c>
-      <c r="G36" s="22">
-        <f t="shared" ref="D36:H36" si="13">SUM(G29:G35)</f>
+      <c r="G36" s="21">
+        <f t="shared" ref="G36:H36" si="13">SUM(G29:G35)</f>
         <v>1352.5627513661379</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H36" s="21">
         <f t="shared" si="13"/>
         <v>23081.399738033462</v>
       </c>
@@ -3349,18 +3357,18 @@
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="21">
         <f>C36+F36</f>
         <v>10273.254299730637</v>
       </c>
-      <c r="E39" s="22">
+      <c r="E39" s="21">
         <f>D36+G36</f>
         <v>15136.385930596844</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F39" s="21">
         <f>E36+H36</f>
         <v>44118.672326866545</v>
       </c>
@@ -3369,22 +3377,22 @@
       </c>
     </row>
     <row r="42" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H42" s="25"/>
+      <c r="H42" s="23"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="29"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="50"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="63">
         <v>0.76</v>
       </c>
       <c r="D44" s="6"/>
@@ -3395,7 +3403,7 @@
       <c r="B45" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="23">
+      <c r="C45" s="63">
         <v>0.9</v>
       </c>
       <c r="D45" s="6"/>
@@ -3406,7 +3414,7 @@
       <c r="B46" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="23">
+      <c r="C46" s="63">
         <v>0.8</v>
       </c>
       <c r="D46" s="6"/>
@@ -3434,18 +3442,18 @@
       </c>
     </row>
     <row r="48" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="24">
+      <c r="C48" s="22">
         <f>C47/($C$44*$C$45*$C$46)</f>
         <v>19.892852768804069</v>
       </c>
-      <c r="D48" s="24">
+      <c r="D48" s="22">
         <f t="shared" ref="D48:E48" si="14">D47/($C$44*$C$45*$C$46)</f>
         <v>44.941524361125268</v>
       </c>
-      <c r="E48" s="24">
+      <c r="E48" s="22">
         <f t="shared" si="14"/>
         <v>10.251624975075076</v>
       </c>
@@ -3460,6 +3468,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="H16:I17"/>
     <mergeCell ref="M3:O4"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="M7:M8"/>
@@ -3471,12 +3485,6 @@
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="H16:I17"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FogliCalcolo/ImpiantoPneumatico/ImpiantoPneumatico.xlsx
+++ b/FogliCalcolo/ImpiantoPneumatico/ImpiantoPneumatico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giona\Desktop\git\ImpiantiMeccanici\FogliCalcolo\ImpiantoPneumatico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4422352-822B-4757-B783-11D02B6603FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CC4939-8C31-4CB7-96F5-BC87F1B79B33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAE0CB82-2983-476A-B252-1B601C3CAAB3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
   <si>
     <t>Dati</t>
   </si>
@@ -356,9 +356,6 @@
   </si>
   <si>
     <t>kg/s</t>
-  </si>
-  <si>
-    <t>&lt;--- scelte da catalogo</t>
   </si>
   <si>
     <t>tab. 29.XI</t>
@@ -663,7 +660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -701,6 +698,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -719,14 +753,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -752,15 +780,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -770,28 +789,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2514,8 +2513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17ABF7C-F85F-4D3F-BF5C-441A2CA8C12E}">
   <dimension ref="B2:AI54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2536,56 +2535,56 @@
   <sheetData>
     <row r="2" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="J3" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="41"/>
-      <c r="M3" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="J3" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="54"/>
+      <c r="M3" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="47"/>
+      <c r="O3" s="48"/>
     </row>
     <row r="4" spans="3:35" ht="18.75" x14ac:dyDescent="0.35">
       <c r="C4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="60">
+      <c r="D4" s="31">
         <v>650</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="43"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="36"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="51"/>
     </row>
     <row r="5" spans="3:35" ht="18.75" x14ac:dyDescent="0.35">
       <c r="C5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="31">
         <v>1.24</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="45"/>
-      <c r="M5" s="37" t="s">
+      <c r="J5" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="58"/>
+      <c r="M5" s="44" t="s">
         <v>13</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O5" s="29">
         <v>3</v>
@@ -2601,22 +2600,22 @@
       </c>
     </row>
     <row r="6" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="31">
         <v>2543</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="45"/>
-      <c r="M6" s="37"/>
+      <c r="J6" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="58"/>
+      <c r="M6" s="44"/>
       <c r="N6" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O6" s="29">
         <v>4</v>
@@ -2638,7 +2637,7 @@
       </c>
     </row>
     <row r="7" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="C7" s="57"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="6">
         <f>D6/60</f>
         <v>42.383333333333333</v>
@@ -2647,15 +2646,15 @@
         <v>47</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="J7" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="45"/>
-      <c r="M7" s="37" t="s">
+      <c r="J7" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="58"/>
+      <c r="M7" s="44" t="s">
         <v>14</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O7" s="29">
         <v>3</v>
@@ -2665,7 +2664,7 @@
       <c r="AI7" s="1"/>
     </row>
     <row r="8" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="57"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="6">
         <f>D6/3600</f>
         <v>0.70638888888888884</v>
@@ -2673,13 +2672,13 @@
       <c r="E8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="K8" s="47"/>
-      <c r="M8" s="38"/>
+      <c r="J8" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="60"/>
+      <c r="M8" s="52"/>
       <c r="N8" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O8" s="30">
         <v>2</v>
@@ -2689,7 +2688,7 @@
       <c r="AI8" s="1"/>
     </row>
     <row r="9" spans="3:35" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="58"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="8">
         <f>D8/D4</f>
         <v>1.0867521367521366E-3</v>
@@ -2750,13 +2749,13 @@
       <c r="C12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="61">
+      <c r="D12" s="32">
         <v>1.5</v>
       </c>
-      <c r="E12" s="61">
+      <c r="E12" s="32">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F12" s="61">
+      <c r="F12" s="32">
         <v>0.18</v>
       </c>
       <c r="G12" s="7" t="s">
@@ -2786,10 +2785,10 @@
         <f>0.9*D4^0.5</f>
         <v>22.945587811167531</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="32">
         <v>29.7</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="32">
         <v>28</v>
       </c>
       <c r="G13" s="7" t="s">
@@ -2855,10 +2854,11 @@
         <v>0.24247838157685256</v>
       </c>
       <c r="E15" s="13">
-        <v>0.26</v>
+        <f t="shared" ref="E15:F15" si="1">(4*E14/(PI()*E13))^0.5</f>
+        <v>0.26391415390664891</v>
       </c>
       <c r="F15" s="13">
-        <f t="shared" ref="F15" si="1">(4*F14/(PI()*F13))^0.5</f>
+        <f t="shared" si="1"/>
         <v>7.6038619913331815E-2</v>
       </c>
       <c r="G15" s="7" t="s">
@@ -2884,22 +2884,20 @@
       <c r="C16" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="60">
+      <c r="D16" s="31">
         <v>0.24</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="31">
         <v>0.26</v>
       </c>
-      <c r="F16" s="60">
+      <c r="F16" s="31">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="59"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
       <c r="AF16" t="s">
         <v>25</v>
       </c>
@@ -2920,20 +2918,20 @@
       <c r="C17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="31">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="31">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F17" s="60">
+      <c r="F17" s="31">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G17" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="37"/>
-      <c r="I17" s="59"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
     </row>
     <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="16" t="s">
@@ -2954,30 +2952,30 @@
       <c r="G18" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="56" t="s">
+      <c r="H18" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="56"/>
+      <c r="I18" s="41"/>
     </row>
     <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="53"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="63"/>
     </row>
     <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B21" s="11"/>
       <c r="C21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="60">
+      <c r="D21" s="31">
         <v>8</v>
       </c>
       <c r="E21" s="6" t="s">
@@ -2993,7 +2991,7 @@
       <c r="C22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="60">
+      <c r="D22" s="31">
         <v>4</v>
       </c>
       <c r="E22" s="6" t="s">
@@ -3009,7 +3007,7 @@
       <c r="C23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="60">
+      <c r="D23" s="31">
         <v>4</v>
       </c>
       <c r="E23" s="6" t="s">
@@ -3025,11 +3023,11 @@
       <c r="C24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="60">
+      <c r="D24" s="31">
         <v>0.55000000000000004</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -3041,15 +3039,15 @@
       <c r="C25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="60">
+      <c r="D25" s="31">
         <v>1.6</v>
       </c>
-      <c r="E25" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
+      <c r="E25" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
       <c r="I25" s="7"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
@@ -3064,16 +3062,16 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="54" t="s">
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -3132,29 +3130,29 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="19">
+        <v>57</v>
+      </c>
+      <c r="C30" s="64">
         <f>4*C29</f>
         <v>1612.9867911980441</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="64">
         <f t="shared" ref="D30:E30" si="5">4*D29</f>
         <v>2716.7850220687324</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="64">
         <f t="shared" si="5"/>
         <v>3641.2560610921928</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F30" s="65">
         <f>3*F29</f>
         <v>650.39789967663069</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="64">
         <f t="shared" ref="G30:H30" si="6">3*G29</f>
         <v>714.44206400825715</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="64">
         <f t="shared" si="6"/>
         <v>12235.403431089355</v>
       </c>
@@ -3198,7 +3196,7 @@
       <c r="B32" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="62">
+      <c r="C32" s="33">
         <v>0</v>
       </c>
       <c r="D32" s="19">
@@ -3380,19 +3378,19 @@
       <c r="H42" s="23"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="50"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="37"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="63">
+      <c r="C44" s="34">
         <v>0.76</v>
       </c>
       <c r="D44" s="6"/>
@@ -3403,7 +3401,7 @@
       <c r="B45" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="63">
+      <c r="C45" s="34">
         <v>0.9</v>
       </c>
       <c r="D45" s="6"/>
@@ -3414,7 +3412,7 @@
       <c r="B46" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="63">
+      <c r="C46" s="34">
         <v>0.8</v>
       </c>
       <c r="D46" s="6"/>
@@ -3468,12 +3466,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="H16:I17"/>
     <mergeCell ref="M3:O4"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="M7:M8"/>
@@ -3485,6 +3477,12 @@
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="H16:I17"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FogliCalcolo/ImpiantoPneumatico/ImpiantoPneumatico.xlsx
+++ b/FogliCalcolo/ImpiantoPneumatico/ImpiantoPneumatico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giona\Desktop\git\ImpiantiMeccanici\FogliCalcolo\ImpiantoPneumatico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Uni\Impianti meccanici\MaterialeEsame\FogliCalcolo\ImpiantoPneumatico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CC4939-8C31-4CB7-96F5-BC87F1B79B33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96201768-1B64-4E85-93C9-9A26D4A6571E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAE0CB82-2983-476A-B252-1B601C3CAAB3}"/>
+    <workbookView xWindow="-7860" yWindow="6015" windowWidth="21600" windowHeight="11385" xr2:uid="{FAE0CB82-2983-476A-B252-1B601C3CAAB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Design1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
   <si>
     <t>Dati</t>
   </si>
@@ -51,13 +51,7 @@
     <t>costruttore</t>
   </si>
   <si>
-    <t>m3/kg</t>
-  </si>
-  <si>
     <t>m/s</t>
-  </si>
-  <si>
-    <t>m3/s</t>
   </si>
   <si>
     <t>m</t>
@@ -437,6 +431,73 @@
   <si>
     <t>valore tab. 29.X moltiplicato per il numero di gomiti</t>
   </si>
+  <si>
+    <t>μ</t>
+  </si>
+  <si>
+    <t>Ciclone</t>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/kg</t>
+    </r>
+  </si>
+  <si>
+    <t>μm</t>
+  </si>
 </sst>
 </file>
 
@@ -445,7 +506,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,6 +583,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -660,7 +736,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -680,7 +756,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -702,6 +777,16 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -720,7 +805,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -729,7 +814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -752,6 +837,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -789,8 +877,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -879,7 +966,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1442,7 +1529,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="62098912"/>
@@ -1524,7 +1611,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1556,7 +1643,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="62105984"/>
@@ -1598,7 +1685,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1628,7 +1715,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2179,13 +2266,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>54664</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>182218</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>101254</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2511,22 +2598,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17ABF7C-F85F-4D3F-BF5C-441A2CA8C12E}">
-  <dimension ref="B2:AI54"/>
+  <dimension ref="B2:AI56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="3" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" customWidth="1"/>
     <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
@@ -2535,58 +2617,58 @@
   <sheetData>
     <row r="2" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
-      <c r="J3" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" s="54"/>
-      <c r="M3" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" s="47"/>
-      <c r="O3" s="48"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="J3" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="60"/>
+      <c r="M3" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="52"/>
+      <c r="O3" s="53"/>
     </row>
     <row r="4" spans="3:35" ht="18.75" x14ac:dyDescent="0.35">
       <c r="C4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="31">
+        <v>30</v>
+      </c>
+      <c r="D4" s="30">
         <v>650</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="51"/>
+        <v>38</v>
+      </c>
+      <c r="J4" s="61"/>
+      <c r="K4" s="62"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="56"/>
     </row>
     <row r="5" spans="3:35" ht="18.75" x14ac:dyDescent="0.35">
       <c r="C5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="31">
+        <v>31</v>
+      </c>
+      <c r="D5" s="30">
         <v>1.24</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="58"/>
-      <c r="M5" s="44" t="s">
-        <v>13</v>
+        <v>38</v>
+      </c>
+      <c r="J5" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="64"/>
+      <c r="M5" s="57" t="s">
+        <v>11</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O5" s="29">
+        <v>54</v>
+      </c>
+      <c r="O5" s="28">
         <v>3</v>
       </c>
       <c r="AG5" t="s">
@@ -2600,63 +2682,63 @@
       </c>
     </row>
     <row r="6" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="31">
+      <c r="C6" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="30">
         <v>2543</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="58"/>
-      <c r="M6" s="44"/>
+        <v>19</v>
+      </c>
+      <c r="J6" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="64"/>
+      <c r="M6" s="57"/>
       <c r="N6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="O6" s="29">
+        <v>48</v>
+      </c>
+      <c r="O6" s="28">
         <v>4</v>
       </c>
       <c r="AF6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG6" s="1">
-        <f>C29+F29</f>
+        <f>C31+F31</f>
         <v>620.04599769172125</v>
       </c>
       <c r="AH6" s="1">
-        <f>D29+G29</f>
+        <f>D31+G31</f>
         <v>917.34361018660206</v>
       </c>
       <c r="AI6" s="1">
-        <f>E29+H29</f>
+        <f>E31+H31</f>
         <v>4988.7818256361661</v>
       </c>
     </row>
     <row r="7" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="C7" s="42"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="6">
         <f>D6/60</f>
         <v>42.383333333333333</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="J7" s="57" t="s">
+      <c r="J7" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="64"/>
+      <c r="M7" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="58"/>
-      <c r="M7" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O7" s="29">
+      <c r="O7" s="28">
         <v>3</v>
       </c>
       <c r="AG7" s="1"/>
@@ -2664,23 +2746,23 @@
       <c r="AI7" s="1"/>
     </row>
     <row r="8" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="42"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="6">
         <f>D6/3600</f>
         <v>0.70638888888888884</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="66"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="60"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="O8" s="30">
+      <c r="O8" s="29">
         <v>2</v>
       </c>
       <c r="AG8" s="1"/>
@@ -2688,13 +2770,13 @@
       <c r="AI8" s="1"/>
     </row>
     <row r="9" spans="3:35" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="43"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="8">
         <f>D8/D4</f>
         <v>1.0867521367521366E-3</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
@@ -2702,10 +2784,10 @@
     </row>
     <row r="10" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AF10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG10" s="1">
-        <f t="shared" ref="AG10:AI16" si="0">C30+F30</f>
+        <f t="shared" ref="AG10:AI16" si="0">C32+F32</f>
         <v>2263.3846908746746</v>
       </c>
       <c r="AH10" s="1">
@@ -2730,7 +2812,7 @@
       </c>
       <c r="G11" s="4"/>
       <c r="AF11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG11" s="1">
         <f t="shared" si="0"/>
@@ -2745,24 +2827,24 @@
         <v>3948.0399353004791</v>
       </c>
     </row>
-    <row r="12" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:35" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="31">
         <v>1.5</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="31">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="31">
         <v>0.18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="AF12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG12" s="1">
         <f t="shared" si="0"/>
@@ -2779,23 +2861,23 @@
     </row>
     <row r="13" spans="3:35" ht="18" x14ac:dyDescent="0.35">
       <c r="C13" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" s="12">
         <f>0.9*D4^0.5</f>
         <v>22.945587811167531</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="31">
         <v>29.7</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="31">
         <v>28</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG13" s="1">
         <f t="shared" si="0"/>
@@ -2810,9 +2892,9 @@
         <v>7982.050921017867</v>
       </c>
     </row>
-    <row r="14" spans="3:35" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:35" ht="18.75" x14ac:dyDescent="0.35">
       <c r="C14" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="12">
         <f>D12*$D$6/3600</f>
@@ -2827,10 +2909,10 @@
         <v>0.12715000000000001</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="AF14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG14" s="1">
         <f t="shared" si="0"/>
@@ -2847,7 +2929,7 @@
     </row>
     <row r="15" spans="3:35" ht="18" x14ac:dyDescent="0.35">
       <c r="C15" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" s="13">
         <f>(4*D14/(PI()*D13))^0.5</f>
@@ -2862,10 +2944,10 @@
         <v>7.6038619913331815E-2</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG15" s="1">
         <f t="shared" si="0"/>
@@ -2882,24 +2964,24 @@
     </row>
     <row r="16" spans="3:35" ht="18" x14ac:dyDescent="0.35">
       <c r="C16" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="31">
+        <v>33</v>
+      </c>
+      <c r="D16" s="30">
         <v>0.24</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="30">
         <v>0.26</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="30">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="44"/>
-      <c r="I16" s="45"/>
+        <v>6</v>
+      </c>
+      <c r="H16" s="49"/>
+      <c r="I16" s="50"/>
       <c r="AF16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG16" s="1">
         <f t="shared" si="0"/>
@@ -2916,120 +2998,126 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C17" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="31">
+        <v>9</v>
+      </c>
+      <c r="D17" s="30">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="30">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="30">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="49"/>
+      <c r="I17" s="50"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="45"/>
-    </row>
-    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="17">
+      <c r="D18" s="37">
         <f>4*D14/(PI()*(D16-2*D17)^2)</f>
         <v>25.502899828776936</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="37">
         <f t="shared" ref="E18:F18" si="2">4*E14/(PI()*(E16-2*E17)^2)</f>
         <v>33.09800343645108</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="37">
         <f t="shared" si="2"/>
         <v>38.317729730905548</v>
       </c>
-      <c r="G18" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="41"/>
-    </row>
-    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="63"/>
-    </row>
-    <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B21" s="11"/>
-      <c r="C21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="31">
-        <v>8</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B22" s="11"/>
-      <c r="C22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="31">
-        <v>4</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="46"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="37">
+        <f>$D$8/($D$5*D14)</f>
+        <v>0.5376344086021505</v>
+      </c>
+      <c r="E19" s="37">
+        <f t="shared" ref="E19:F19" si="3">$D$8/($D$5*E14)</f>
+        <v>0.35063113604488078</v>
+      </c>
+      <c r="F19" s="37">
+        <f t="shared" si="3"/>
+        <v>4.4802867383512535</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+    </row>
+    <row r="20" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="16"/>
+      <c r="D20" s="39" t="str">
+        <f>IF(D19&lt;1,"Flusso sospeso",IF(D19&gt;40,"Fase densa","Valutare"))</f>
+        <v>Flusso sospeso</v>
+      </c>
+      <c r="E20" s="39" t="str">
+        <f t="shared" ref="E20:F20" si="4">IF(E19&lt;1,"Flusso sospeso",IF(E19&gt;40,"Fase densa","Valutare"))</f>
+        <v>Flusso sospeso</v>
+      </c>
+      <c r="F20" s="39" t="str">
+        <f t="shared" si="4"/>
+        <v>Valutare</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+    </row>
+    <row r="21" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="69"/>
+    </row>
+    <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B23" s="11"/>
       <c r="C23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="31">
-        <v>4</v>
+        <v>43</v>
+      </c>
+      <c r="D23" s="30">
+        <v>8</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B24" s="11"/>
       <c r="C24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="31">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="6"/>
+      <c r="D24" s="30">
+        <v>4</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="23"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="7"/>
@@ -3037,24 +3125,30 @@
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
       <c r="C25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="31">
-        <v>1.6</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
+        <v>36</v>
+      </c>
+      <c r="D25" s="30">
+        <v>4</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
       <c r="I25" s="7"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="C26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="30">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>47</v>
+      </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -3062,424 +3156,498 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
-      <c r="C27" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
+      <c r="C27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="30">
+        <v>1.6</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="11"/>
+      <c r="C29" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="11"/>
+      <c r="C30" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F30" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G30" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H30" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="19">
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="18">
         <f>$D$5*D18^2/2</f>
         <v>403.24669779951103</v>
       </c>
-      <c r="D29" s="19">
-        <f t="shared" ref="D29:E29" si="3">$D$5*E18^2/2</f>
+      <c r="D31" s="18">
+        <f t="shared" ref="D31:E31" si="5">$D$5*E18^2/2</f>
         <v>679.19625551718309</v>
       </c>
-      <c r="E29" s="19">
-        <f t="shared" si="3"/>
+      <c r="E31" s="18">
+        <f t="shared" si="5"/>
         <v>910.3140152730482</v>
       </c>
-      <c r="F29" s="27">
+      <c r="F31" s="26">
         <f>$D$6/3600/D14*D18^2/2</f>
         <v>216.79929989221023</v>
       </c>
-      <c r="G29" s="19">
-        <f t="shared" ref="G29:H29" si="4">$D$6/3600/E14*E18^2/2</f>
+      <c r="G31" s="18">
+        <f t="shared" ref="G31:H31" si="6">$D$6/3600/E14*E18^2/2</f>
         <v>238.14735466941903</v>
       </c>
-      <c r="H29" s="19">
-        <f t="shared" si="4"/>
+      <c r="H31" s="18">
+        <f t="shared" si="6"/>
         <v>4078.4678103631181</v>
       </c>
-      <c r="I29" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="64">
-        <f>4*C29</f>
-        <v>1612.9867911980441</v>
-      </c>
-      <c r="D30" s="64">
-        <f t="shared" ref="D30:E30" si="5">4*D29</f>
-        <v>2716.7850220687324</v>
-      </c>
-      <c r="E30" s="64">
-        <f t="shared" si="5"/>
-        <v>3641.2560610921928</v>
-      </c>
-      <c r="F30" s="65">
-        <f>3*F29</f>
-        <v>650.39789967663069</v>
-      </c>
-      <c r="G30" s="64">
-        <f t="shared" ref="G30:H30" si="6">3*G29</f>
-        <v>714.44206400825715</v>
-      </c>
-      <c r="H30" s="64">
-        <f t="shared" si="6"/>
-        <v>12235.403431089355</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="19">
-        <f>0.000812*$D$5^0.85*D18^2/(D16-2*D17)^1.3*$D$21*9.81</f>
-        <v>336.24543686237615</v>
-      </c>
-      <c r="D31" s="19">
-        <f t="shared" ref="D31:E31" si="7">0.000812*$D$5^0.85*E18^2/(E16-2*E17)^1.3*$D$21*9.81</f>
-        <v>508.16533764546637</v>
-      </c>
-      <c r="E31" s="19">
-        <f t="shared" si="7"/>
-        <v>3924.0599353004791</v>
-      </c>
-      <c r="F31" s="27">
-        <f>0.2*$D$24*$D$6/3600/D14*$D$22*9.81</f>
-        <v>2.8776000000000006</v>
-      </c>
-      <c r="G31" s="19">
-        <f t="shared" ref="G31:H31" si="8">0.2*$D$24*$D$6/3600/E14*$D$22*9.81</f>
-        <v>1.8766956521739135</v>
-      </c>
-      <c r="H31" s="19">
-        <f t="shared" si="8"/>
-        <v>23.980000000000004</v>
-      </c>
       <c r="I31" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="33">
-        <v>0</v>
-      </c>
-      <c r="D32" s="19">
-        <v>0</v>
-      </c>
-      <c r="E32" s="19">
-        <v>0</v>
-      </c>
-      <c r="F32" s="27">
-        <f>$D$6/3600/D14*$D$23*9.81</f>
-        <v>26.16</v>
-      </c>
-      <c r="G32" s="19">
-        <f>$D$6/3600/E14*$D$23*9.81</f>
-        <v>17.060869565217391</v>
-      </c>
-      <c r="H32" s="19">
-        <f>$D$6/3600/F14*$D$23*9.81</f>
-        <v>217.99999999999997</v>
+        <v>55</v>
+      </c>
+      <c r="C32" s="35">
+        <f>4*C31</f>
+        <v>1612.9867911980441</v>
+      </c>
+      <c r="D32" s="35">
+        <f t="shared" ref="D32:E32" si="7">4*D31</f>
+        <v>2716.7850220687324</v>
+      </c>
+      <c r="E32" s="35">
+        <f t="shared" si="7"/>
+        <v>3641.2560610921928</v>
+      </c>
+      <c r="F32" s="36">
+        <f>3*F31</f>
+        <v>650.39789967663069</v>
+      </c>
+      <c r="G32" s="35">
+        <f t="shared" ref="G32:H32" si="8">3*G31</f>
+        <v>714.44206400825715</v>
+      </c>
+      <c r="H32" s="35">
+        <f t="shared" si="8"/>
+        <v>12235.403431089355</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="19">
-        <f>$D$25*$D$5*D18^2/2</f>
-        <v>645.19471647921762</v>
-      </c>
-      <c r="D33" s="19">
-        <f t="shared" ref="D33:E33" si="9">$D$25*$D$5*E18^2/2</f>
-        <v>1086.714008827493</v>
-      </c>
-      <c r="E33" s="19">
+        <v>15</v>
+      </c>
+      <c r="C33" s="18">
+        <f>0.000812*$D$5^0.85*D18^2/(D16-2*D17)^1.3*$D$23*9.81</f>
+        <v>336.24543686237615</v>
+      </c>
+      <c r="D33" s="18">
+        <f t="shared" ref="D33:E33" si="9">0.000812*$D$5^0.85*E18^2/(E16-2*E17)^1.3*$D$23*9.81</f>
+        <v>508.16533764546637</v>
+      </c>
+      <c r="E33" s="18">
         <f t="shared" si="9"/>
-        <v>1456.5024244368772</v>
-      </c>
-      <c r="F33" s="27">
-        <f>C33*$D$6/(3600*$D$5*D14)</f>
-        <v>346.87887982753642</v>
-      </c>
-      <c r="G33" s="19">
-        <f t="shared" ref="G33:H33" si="10">D33*$D$6/(3600*$D$5*E14)</f>
-        <v>381.03576747107047</v>
-      </c>
-      <c r="H33" s="19">
+        <v>3924.0599353004791</v>
+      </c>
+      <c r="F33" s="26">
+        <f>0.2*$D$26*$D$6/3600/D14*$D$24*9.81</f>
+        <v>2.8776000000000006</v>
+      </c>
+      <c r="G33" s="18">
+        <f t="shared" ref="G33:H33" si="10">0.2*$D$26*$D$6/3600/E14*$D$24*9.81</f>
+        <v>1.8766956521739135</v>
+      </c>
+      <c r="H33" s="18">
         <f t="shared" si="10"/>
-        <v>6525.5484965809901</v>
+        <v>23.980000000000004</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="19">
+        <v>16</v>
+      </c>
+      <c r="C34" s="32">
+        <v>0</v>
+      </c>
+      <c r="D34" s="18">
+        <v>0</v>
+      </c>
+      <c r="E34" s="18">
+        <v>0</v>
+      </c>
+      <c r="F34" s="26">
+        <f>$D$6/3600/D14*$D$25*9.81</f>
+        <v>26.16</v>
+      </c>
+      <c r="G34" s="18">
+        <f>$D$6/3600/E14*$D$25*9.81</f>
+        <v>17.060869565217391</v>
+      </c>
+      <c r="H34" s="18">
+        <f>$D$6/3600/F14*$D$25*9.81</f>
+        <v>217.99999999999997</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="18">
+        <f>$D$27*$D$5*D18^2/2</f>
+        <v>645.19471647921762</v>
+      </c>
+      <c r="D35" s="18">
+        <f t="shared" ref="D35:E35" si="11">$D$27*$D$5*E18^2/2</f>
+        <v>1086.714008827493</v>
+      </c>
+      <c r="E35" s="18">
+        <f t="shared" si="11"/>
+        <v>1456.5024244368772</v>
+      </c>
+      <c r="F35" s="26">
+        <f>C35*$D$6/(3600*$D$5*D14)</f>
+        <v>346.87887982753642</v>
+      </c>
+      <c r="G35" s="18">
+        <f t="shared" ref="G35:H35" si="12">D35*$D$6/(3600*$D$5*E14)</f>
+        <v>381.03576747107047</v>
+      </c>
+      <c r="H35" s="18">
+        <f t="shared" si="12"/>
+        <v>6525.5484965809901</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="18">
         <f>10*$D$5*D18^2/2</f>
         <v>4032.4669779951105</v>
       </c>
-      <c r="D34" s="19">
-        <f t="shared" ref="D34:E34" si="11">10*$D$5*E18^2/2</f>
+      <c r="D36" s="18">
+        <f t="shared" ref="D36:E36" si="13">10*$D$5*E18^2/2</f>
         <v>6791.9625551718309</v>
       </c>
-      <c r="E34" s="19">
-        <f t="shared" si="11"/>
+      <c r="E36" s="18">
+        <f t="shared" si="13"/>
         <v>9103.1401527304824</v>
       </c>
-      <c r="F34" s="27">
+      <c r="F36" s="26">
         <v>0</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G36" s="18">
         <v>0</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H36" s="18">
         <v>0</v>
       </c>
-      <c r="I34" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
+      <c r="I36" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="6">
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="6">
         <v>2000</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D37" s="6">
         <v>2001</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E37" s="6">
         <v>2002</v>
       </c>
-      <c r="F35" s="26">
+      <c r="F37" s="25">
         <v>0</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G37" s="6">
         <v>0</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H37" s="6">
         <v>0</v>
       </c>
-      <c r="I35" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="20" t="s">
+      <c r="I37" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="20">
+        <f>SUM(C31:C37)</f>
+        <v>9030.1406203342594</v>
+      </c>
+      <c r="D38" s="20">
+        <f t="shared" ref="D38:E38" si="14">SUM(D31:D37)</f>
+        <v>13783.823179230705</v>
+      </c>
+      <c r="E38" s="20">
+        <f t="shared" si="14"/>
+        <v>21037.272588833082</v>
+      </c>
+      <c r="F38" s="27">
+        <f>SUM(F31:F37)</f>
+        <v>1243.1136793963774</v>
+      </c>
+      <c r="G38" s="20">
+        <f t="shared" ref="G38:H38" si="15">SUM(G31:G37)</f>
+        <v>1352.5627513661379</v>
+      </c>
+      <c r="H38" s="20">
+        <f t="shared" si="15"/>
+        <v>23081.399738033462</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="3"/>
+      <c r="D40" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="20">
+        <f>C38+F38</f>
+        <v>10273.254299730637</v>
+      </c>
+      <c r="E41" s="20">
+        <f>D38+G38</f>
+        <v>15136.385930596844</v>
+      </c>
+      <c r="F41" s="20">
+        <f>E38+H38</f>
+        <v>44118.672326866545</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H44" s="22"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C45" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="42"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="21">
-        <f>SUM(C29:C35)</f>
-        <v>9030.1406203342594</v>
-      </c>
-      <c r="D36" s="21">
-        <f t="shared" ref="D36:E36" si="12">SUM(D29:D35)</f>
-        <v>13783.823179230705</v>
-      </c>
-      <c r="E36" s="21">
-        <f t="shared" si="12"/>
-        <v>21037.272588833082</v>
-      </c>
-      <c r="F36" s="28">
-        <f>SUM(F29:F35)</f>
-        <v>1243.1136793963774</v>
-      </c>
-      <c r="G36" s="21">
-        <f t="shared" ref="G36:H36" si="13">SUM(G29:G35)</f>
-        <v>1352.5627513661379</v>
-      </c>
-      <c r="H36" s="21">
-        <f t="shared" si="13"/>
-        <v>23081.399738033462</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="3"/>
-      <c r="D38" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="21">
-        <f>C36+F36</f>
-        <v>10273.254299730637</v>
-      </c>
-      <c r="E39" s="21">
-        <f>D36+G36</f>
-        <v>15136.385930596844</v>
-      </c>
-      <c r="F39" s="21">
-        <f>E36+H36</f>
-        <v>44118.672326866545</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H42" s="23"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="37"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="11" t="s">
+      <c r="D46" s="33">
+        <v>0.76</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="33">
+        <v>0.9</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="34">
-        <v>0.76</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="11" t="s">
+      <c r="D48" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C49" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="12">
+        <f>D41*D14*0.001</f>
+        <v>10.885369035089587</v>
+      </c>
+      <c r="E49" s="12">
+        <f>E41*E14*0.001</f>
+        <v>24.592002130407746</v>
+      </c>
+      <c r="F49" s="12">
+        <f>F41*F14*0.001</f>
+        <v>5.6096891863610816</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="34">
-        <v>0.9</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="12">
-        <f>D39*D14*0.001</f>
-        <v>10.885369035089587</v>
-      </c>
-      <c r="D47" s="12">
-        <f>E39*E14*0.001</f>
-        <v>24.592002130407746</v>
-      </c>
-      <c r="E47" s="12">
-        <f>F39*F14*0.001</f>
-        <v>5.6096891863610816</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="22">
-        <f>C47/($C$44*$C$45*$C$46)</f>
+    </row>
+    <row r="50" spans="3:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C50" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="21">
+        <f>D49/($D$46*$D$47*$D$48)</f>
         <v>19.892852768804069</v>
       </c>
-      <c r="D48" s="22">
-        <f t="shared" ref="D48:E48" si="14">D47/($C$44*$C$45*$C$46)</f>
+      <c r="E50" s="21">
+        <f>E49/($D$46*$D$47*$D$48)</f>
         <v>44.941524361125268</v>
       </c>
-      <c r="E48" s="22">
-        <f t="shared" si="14"/>
+      <c r="F50" s="21">
+        <f>F49/($D$46*$D$47*$D$48)</f>
         <v>10.251624975075076</v>
       </c>
-      <c r="F48" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="G50" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C52" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="42"/>
+    </row>
+    <row r="53" spans="3:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="C53" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="6">
+        <v>220</v>
+      </c>
+      <c r="E53" s="6">
+        <v>220</v>
+      </c>
+      <c r="F53" s="6">
+        <v>220</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C54" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="70">
+        <f>(8*(D53*0.000001)^2*D14*$D$4/(0.15^2))^(1/3)</f>
+        <v>0.22799943382248666</v>
+      </c>
+      <c r="E54" s="70">
+        <f t="shared" ref="E54:F54" si="16">(8*(E53*0.000001)^2*E14*$D$4/(0.15^2))^(1/3)</f>
+        <v>0.26291334310681713</v>
+      </c>
+      <c r="F54" s="70">
+        <f t="shared" si="16"/>
+        <v>0.11245899132670555</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="C45:G45"/>
     <mergeCell ref="M3:O4"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E27:H27"/>
     <mergeCell ref="J3:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="H16:I17"/>

--- a/FogliCalcolo/ImpiantoPneumatico/ImpiantoPneumatico.xlsx
+++ b/FogliCalcolo/ImpiantoPneumatico/ImpiantoPneumatico.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Uni\Impianti meccanici\MaterialeEsame\FogliCalcolo\ImpiantoPneumatico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96201768-1B64-4E85-93C9-9A26D4A6571E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2A7C1E-53A9-4559-BE79-F984C92DEA36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7860" yWindow="6015" windowWidth="21600" windowHeight="11385" xr2:uid="{FAE0CB82-2983-476A-B252-1B601C3CAAB3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FAE0CB82-2983-476A-B252-1B601C3CAAB3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Design1" sheetId="1" r:id="rId1"/>
+    <sheet name="Conversioni" sheetId="2" r:id="rId1"/>
+    <sheet name="Design1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,14 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="87">
   <si>
     <t>Dati</t>
   </si>
   <si>
-    <t>rv</t>
-  </si>
-  <si>
     <t>zignoli</t>
   </si>
   <si>
@@ -106,9 +104,6 @@
   </si>
   <si>
     <t>totale</t>
-  </si>
-  <si>
-    <t>Potenza trasmessa</t>
   </si>
   <si>
     <t>eta v</t>
@@ -170,6 +165,529 @@
   </si>
   <si>
     <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>est</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>th</t>
+    </r>
+  </si>
+  <si>
+    <t>DH</t>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>el</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>kg/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/s</t>
+    </r>
+  </si>
+  <si>
+    <t>perdite tot</t>
+  </si>
+  <si>
+    <t>Potenze</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>φ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+  </si>
+  <si>
+    <t>kg/min</t>
+  </si>
+  <si>
+    <t>kg/s</t>
+  </si>
+  <si>
+    <t>tab. 29.XI</t>
+  </si>
+  <si>
+    <t>impianto in pressione</t>
+  </si>
+  <si>
+    <t>conversione unità di misure pressione</t>
+  </si>
+  <si>
+    <t>1 Pa = 1 N/m2</t>
+  </si>
+  <si>
+    <t>1 bar = 100000 Pa</t>
+  </si>
+  <si>
+    <t>1 mmH2O = 9,8 Pa</t>
+  </si>
+  <si>
+    <t>1 kg/m2 = 1 mmH2O</t>
+  </si>
+  <si>
+    <t>impianto in depressione</t>
+  </si>
+  <si>
+    <r>
+      <t>ingresso</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>nota</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>**</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> coefficienti moltiplicativi perdite per ingresso nel circuito</t>
+    </r>
+  </si>
+  <si>
+    <t>valore tab. 29.X moltiplicato per il numero di gomiti</t>
+  </si>
+  <si>
+    <t>μ</t>
+  </si>
+  <si>
+    <t>Ciclone</t>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/kg</t>
+    </r>
+  </si>
+  <si>
+    <t>μm</t>
+  </si>
+  <si>
+    <t>m3/s</t>
+  </si>
+  <si>
+    <t>a/m</t>
+  </si>
+  <si>
+    <t>aria/materiale</t>
+  </si>
+  <si>
+    <r>
+      <t>kg</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/kg</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/kg</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nota: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>μ=r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>p</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>v</t>
     </r>
     <r>
@@ -183,201 +701,29 @@
       </rPr>
       <t>min,a</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
     <r>
       <rPr>
-        <vertAlign val="subscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>est</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Q</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>th</t>
-    </r>
-  </si>
-  <si>
-    <t>DH</t>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>el</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>kg/m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/s</t>
-    </r>
-  </si>
-  <si>
-    <t>perdite tot</t>
-  </si>
-  <si>
-    <t>Potenze</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">tan </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>φ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m</t>
-    </r>
-  </si>
-  <si>
-    <t>kg/min</t>
-  </si>
-  <si>
-    <t>kg/s</t>
-  </si>
-  <si>
-    <t>tab. 29.XI</t>
-  </si>
-  <si>
-    <t>impianto in pressione</t>
-  </si>
-  <si>
-    <t>conversione unità di misure pressione</t>
-  </si>
-  <si>
-    <t>1 Pa = 1 N/m2</t>
-  </si>
-  <si>
-    <t>1 bar = 100000 Pa</t>
-  </si>
-  <si>
-    <t>1 mmH2O = 9,8 Pa</t>
-  </si>
-  <si>
-    <t>1 kg/m2 = 1 mmH2O</t>
-  </si>
-  <si>
-    <t>impianto in depressione</t>
-  </si>
-  <si>
-    <r>
-      <t>ingresso</t>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>polvere</t>
+  </si>
+  <si>
+    <t>piccoli grani</t>
+  </si>
+  <si>
+    <t>pezz. Irregolare</t>
+  </si>
+  <si>
+    <r>
+      <t>nota</t>
     </r>
     <r>
       <rPr>
@@ -388,23 +734,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>nota</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>**</t>
+      <t>*</t>
     </r>
     <r>
       <rPr>
@@ -425,88 +755,56 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> coefficienti moltiplicativi perdite per ingresso nel circuito</t>
-    </r>
-  </si>
-  <si>
-    <t>valore tab. 29.X moltiplicato per il numero di gomiti</t>
-  </si>
-  <si>
-    <t>μ</t>
-  </si>
-  <si>
-    <t>Ciclone</t>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/kg</t>
-    </r>
-  </si>
-  <si>
-    <t>μm</t>
+      <t xml:space="preserve"> coefficienti moltiplicativi velocità materiale</t>
+    </r>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>P trasmessa</t>
+  </si>
+  <si>
+    <t>m3/min</t>
+  </si>
+  <si>
+    <t>m3/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k </t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>Tin</t>
+  </si>
+  <si>
+    <t>Tout</t>
+  </si>
+  <si>
+    <t>Compressione isoentropica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,6 +899,33 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -736,7 +1061,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -787,6 +1112,115 @@
     <xf numFmtId="2" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -796,9 +1230,48 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -808,76 +1281,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1197,13 +1600,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>339.12303686237613</c:v>
+                  <c:v>339.84243686237613</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>510.04203329764027</c:v>
+                  <c:v>510.51120721068378</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3948.0399353004791</c:v>
+                  <c:v>3954.034935300479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1463,13 +1866,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2000</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2001</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2002</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2597,11 +3000,520 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3321BAEA-93B4-424B-B44D-916F31C5C817}">
+  <dimension ref="A1:R18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B2" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="44">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="66"/>
+      <c r="L2" s="67"/>
+    </row>
+    <row r="3" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="30">
+        <v>1.24</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="68"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="70"/>
+    </row>
+    <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="30">
+        <v>2543</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="72"/>
+      <c r="C5" s="58">
+        <f>C4/3600</f>
+        <v>0.70638888888888884</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+    </row>
+    <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="47">
+        <v>1.6240000000000001</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="49"/>
+      <c r="F8" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="47">
+        <v>0.35</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="49"/>
+      <c r="J8" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="47">
+        <v>36</v>
+      </c>
+      <c r="L8" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="49"/>
+      <c r="N8" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" s="47">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P8" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+    </row>
+    <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="49">
+        <f>C8/C5</f>
+        <v>2.2990169091624071</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="49">
+        <f>1/G8 * 1/C3</f>
+        <v>2.3041474654377883</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="49"/>
+      <c r="J9" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="49">
+        <f>K8/C2</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="L9" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="49"/>
+      <c r="N9" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9" s="49">
+        <f>O8*C2</f>
+        <v>2300</v>
+      </c>
+      <c r="P9" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+    </row>
+    <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="49">
+        <f>C5/(C3*C8)</f>
+        <v>0.35078107067817854</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="49">
+        <f>C2/C3 * 1/G8</f>
+        <v>2304.1474654377885</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="49"/>
+      <c r="J10" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="49">
+        <f>C2/C3*1/K8</f>
+        <v>22.401433691756274</v>
+      </c>
+      <c r="L10" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="49"/>
+      <c r="N10" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" s="49">
+        <f>C2/C3*1/O9</f>
+        <v>0.35063113604488083</v>
+      </c>
+      <c r="P10" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+    </row>
+    <row r="11" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24"/>
+      <c r="B11" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="53">
+        <f>C8*C2/C5</f>
+        <v>2299.0169091624066</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="49"/>
+      <c r="F11" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="53">
+        <f>G10*C5/C2</f>
+        <v>1.6276241679467489</v>
+      </c>
+      <c r="H11" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="49"/>
+      <c r="J11" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="53">
+        <f>K8*C5/C2</f>
+        <v>2.5430000000000001E-2</v>
+      </c>
+      <c r="L11" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="49"/>
+      <c r="N11" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="53">
+        <f>O8*C5</f>
+        <v>1.6246944444444442</v>
+      </c>
+      <c r="P11" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="44">
+        <v>10</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="44">
+        <v>10</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="44">
+        <v>10</v>
+      </c>
+      <c r="L13" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="24"/>
+      <c r="N13" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="44">
+        <v>10</v>
+      </c>
+      <c r="P13" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="21">
+        <f>1000*(4*C8/(PI()*C13))^0.5</f>
+        <v>454.72420439755615</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="21">
+        <f>1000*(4*G11/(PI()*G13))^0.5</f>
+        <v>455.23130984110338</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="21">
+        <f>1000*(4*K11/(PI()*K13))^0.5</f>
+        <v>56.902092775762817</v>
+      </c>
+      <c r="L14" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="N14" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="O14" s="21">
+        <f>1000*(4*O11/(PI()*O13))^0.5</f>
+        <v>454.82141712744709</v>
+      </c>
+      <c r="P14" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="43">
+        <f>C8</f>
+        <v>1.6240000000000001</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="43">
+        <f>G11</f>
+        <v>1.6276241679467489</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="43">
+        <f>K11</f>
+        <v>2.5430000000000001E-2</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N16" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="43">
+        <f>O11</f>
+        <v>1.6246944444444442</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="74"/>
+      <c r="C17" s="6">
+        <f>C16*60</f>
+        <v>97.440000000000012</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="74"/>
+      <c r="G17" s="6">
+        <f>G16*60</f>
+        <v>97.657450076804935</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" s="74"/>
+      <c r="K17" s="6">
+        <f>K16*60</f>
+        <v>1.5258</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N17" s="74"/>
+      <c r="O17" s="6">
+        <f>O16*60</f>
+        <v>97.481666666666655</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="75"/>
+      <c r="C18" s="8">
+        <f>C16*3600</f>
+        <v>5846.4000000000005</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="75"/>
+      <c r="G18" s="8">
+        <f>G16*3600</f>
+        <v>5859.4470046082961</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" s="75"/>
+      <c r="K18" s="8">
+        <f>K16*3600</f>
+        <v>91.548000000000002</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N18" s="75"/>
+      <c r="O18" s="8">
+        <f>O16*3600</f>
+        <v>5848.9</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="N16:N18"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="B16:B18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17ABF7C-F85F-4D3F-BF5C-441A2CA8C12E}">
-  <dimension ref="B2:AI56"/>
+  <dimension ref="B2:AI60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2610,100 +3522,111 @@
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
     <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="J3" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="60"/>
-      <c r="M3" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" s="52"/>
-      <c r="O3" s="53"/>
-    </row>
-    <row r="4" spans="3:35" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="D3" s="86"/>
+      <c r="E3" s="87"/>
+      <c r="J3" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="92"/>
+      <c r="M3" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="80"/>
+      <c r="O3" s="81"/>
+      <c r="Q3" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="R3" s="66"/>
+      <c r="S3" s="67"/>
+    </row>
+    <row r="4" spans="3:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="30">
         <v>650</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="56"/>
+        <v>35</v>
+      </c>
+      <c r="J4" s="93"/>
+      <c r="K4" s="94"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="84"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="70"/>
     </row>
     <row r="5" spans="3:35" ht="18.75" x14ac:dyDescent="0.35">
       <c r="C5" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="30">
         <v>1.24</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="64"/>
-      <c r="M5" s="57" t="s">
-        <v>11</v>
+        <v>35</v>
+      </c>
+      <c r="J5" s="95" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="96"/>
+      <c r="M5" s="88" t="s">
+        <v>10</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O5" s="28">
         <v>3</v>
       </c>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
       <c r="AG5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH5" t="s">
         <v>2</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
         <v>3</v>
       </c>
-      <c r="AI5" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="6" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="47" t="s">
-        <v>29</v>
+      <c r="C6" s="74" t="s">
+        <v>27</v>
       </c>
       <c r="D6" s="30">
         <v>2543</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="64"/>
-      <c r="M6" s="57"/>
+        <v>18</v>
+      </c>
+      <c r="J6" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="96"/>
+      <c r="M6" s="88"/>
       <c r="N6" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O6" s="28">
         <v>4</v>
       </c>
       <c r="AF6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG6" s="1">
         <f>C31+F31</f>
@@ -2719,24 +3642,24 @@
       </c>
     </row>
     <row r="7" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="C7" s="47"/>
-      <c r="D7" s="6">
+      <c r="C7" s="74"/>
+      <c r="D7" s="13">
         <f>D6/60</f>
         <v>42.383333333333333</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="J7" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="64"/>
-      <c r="M7" s="57" t="s">
-        <v>12</v>
+      <c r="J7" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="96"/>
+      <c r="M7" s="88" t="s">
+        <v>11</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O7" s="28">
         <v>3</v>
@@ -2746,21 +3669,21 @@
       <c r="AI7" s="1"/>
     </row>
     <row r="8" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="47"/>
-      <c r="D8" s="6">
+      <c r="C8" s="74"/>
+      <c r="D8" s="41">
         <f>D6/3600</f>
         <v>0.70638888888888884</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="66"/>
-      <c r="M8" s="58"/>
+        <v>43</v>
+      </c>
+      <c r="J8" s="97" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="98"/>
+      <c r="M8" s="89"/>
       <c r="N8" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O8" s="29">
         <v>2</v>
@@ -2770,21 +3693,26 @@
       <c r="AI8" s="1"/>
     </row>
     <row r="9" spans="3:35" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="48"/>
-      <c r="D9" s="8">
+      <c r="C9" s="75"/>
+      <c r="D9" s="42">
         <f>D8/D4</f>
         <v>1.0867521367521366E-3</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
     </row>
     <row r="10" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M10" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="80"/>
+      <c r="O10" s="81"/>
       <c r="AF10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG10" s="1">
         <f t="shared" ref="AG10:AI16" si="0">C32+F32</f>
@@ -2802,34 +3730,37 @@
     <row r="11" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
       <c r="D11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>4</v>
-      </c>
       <c r="G11" s="4"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="84"/>
       <c r="AF11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG11" s="1">
         <f t="shared" si="0"/>
-        <v>339.12303686237613</v>
+        <v>339.84243686237613</v>
       </c>
       <c r="AH11" s="1">
         <f t="shared" si="0"/>
-        <v>510.04203329764027</v>
+        <v>510.51120721068378</v>
       </c>
       <c r="AI11" s="1">
         <f t="shared" si="0"/>
-        <v>3948.0399353004791</v>
+        <v>3954.034935300479</v>
       </c>
     </row>
     <row r="12" spans="3:35" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C12" s="11" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D12" s="31">
         <v>1.5</v>
@@ -2841,10 +3772,17 @@
         <v>0.18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>62</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="O12" s="7"/>
       <c r="AF12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG12" s="1">
         <f t="shared" si="0"/>
@@ -2861,9 +3799,9 @@
     </row>
     <row r="13" spans="3:35" ht="18" x14ac:dyDescent="0.35">
       <c r="C13" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="12">
+        <v>70</v>
+      </c>
+      <c r="D13" s="31">
         <f>0.9*D4^0.5</f>
         <v>22.945587811167531</v>
       </c>
@@ -2871,13 +3809,20 @@
         <v>29.7</v>
       </c>
       <c r="F13" s="31">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="N13" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O13" s="7"/>
       <c r="AF13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG13" s="1">
         <f t="shared" si="0"/>
@@ -2892,9 +3837,9 @@
         <v>7982.050921017867</v>
       </c>
     </row>
-    <row r="14" spans="3:35" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C14" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D14" s="12">
         <f>D12*$D$6/3600</f>
@@ -2909,10 +3854,17 @@
         <v>0.12715000000000001</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="O14" s="9"/>
       <c r="AF14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG14" s="1">
         <f t="shared" si="0"/>
@@ -2929,7 +3881,7 @@
     </row>
     <row r="15" spans="3:35" ht="18" x14ac:dyDescent="0.35">
       <c r="C15" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D15" s="13">
         <f>(4*D14/(PI()*D13))^0.5</f>
@@ -2941,30 +3893,30 @@
       </c>
       <c r="F15" s="13">
         <f t="shared" si="1"/>
-        <v>7.6038619913331815E-2</v>
+        <v>0.14225523193940703</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG15" s="1">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="AH15" s="1">
         <f t="shared" si="0"/>
-        <v>2001</v>
+        <v>1500</v>
       </c>
       <c r="AI15" s="1">
         <f t="shared" si="0"/>
-        <v>2002</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="16" spans="3:35" ht="18" x14ac:dyDescent="0.35">
       <c r="C16" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D16" s="30">
         <v>0.24</v>
@@ -2976,29 +3928,29 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="49"/>
-      <c r="I16" s="50"/>
+        <v>5</v>
+      </c>
+      <c r="H16" s="61"/>
+      <c r="I16" s="62"/>
       <c r="AF16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG16" s="1">
         <f t="shared" si="0"/>
-        <v>10273.254299730637</v>
+        <v>9773.9736997306372</v>
       </c>
       <c r="AH16" s="1">
         <f t="shared" si="0"/>
-        <v>15136.385930596844</v>
+        <v>14635.855104509887</v>
       </c>
       <c r="AI16" s="1">
         <f t="shared" si="0"/>
-        <v>44118.672326866545</v>
+        <v>43622.667326866547</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C17" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="30">
         <v>5.0000000000000001E-3</v>
@@ -3010,14 +3962,14 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="49"/>
-      <c r="I17" s="50"/>
+        <v>5</v>
+      </c>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C18" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="37">
         <f>4*D14/(PI()*(D16-2*D17)^2)</f>
@@ -3032,16 +3984,16 @@
         <v>38.317729730905548</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="46"/>
+        <v>4</v>
+      </c>
+      <c r="H18" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="104"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C19" s="38" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D19" s="37">
         <f>$D$8/($D$5*D14)</f>
@@ -3079,27 +4031,27 @@
     </row>
     <row r="21" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="69"/>
+      <c r="B22" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="101"/>
     </row>
     <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B23" s="11"/>
       <c r="C23" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D23" s="30">
         <v>8</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -3109,13 +4061,13 @@
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B24" s="11"/>
       <c r="C24" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D24" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" s="23"/>
       <c r="G24" s="6"/>
@@ -3125,13 +4077,13 @@
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
       <c r="C25" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D25" s="30">
         <v>4</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -3141,13 +4093,13 @@
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D26" s="30">
         <v>0.55000000000000004</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -3157,17 +4109,17 @@
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
       <c r="C27" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="30">
         <v>1.6</v>
       </c>
-      <c r="E27" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
+      <c r="E27" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -3182,43 +4134,43 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
       <c r="C30" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="F30" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="H30" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="18">
         <f>$D$5*D18^2/2</f>
@@ -3245,12 +4197,12 @@
         <v>4078.4678103631181</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C32" s="35">
         <f>4*C31</f>
@@ -3277,12 +4229,12 @@
         <v>12235.403431089355</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" s="18">
         <f>0.000812*$D$5^0.85*D18^2/(D16-2*D17)^1.3*$D$23*9.81</f>
@@ -3298,23 +4250,23 @@
       </c>
       <c r="F33" s="26">
         <f>0.2*$D$26*$D$6/3600/D14*$D$24*9.81</f>
-        <v>2.8776000000000006</v>
+        <v>3.5970000000000009</v>
       </c>
       <c r="G33" s="18">
         <f t="shared" ref="G33:H33" si="10">0.2*$D$26*$D$6/3600/E14*$D$24*9.81</f>
-        <v>1.8766956521739135</v>
+        <v>2.345869565217392</v>
       </c>
       <c r="H33" s="18">
         <f t="shared" si="10"/>
-        <v>23.980000000000004</v>
+        <v>29.975000000000005</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" s="32">
         <v>0</v>
@@ -3338,12 +4290,12 @@
         <v>217.99999999999997</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C35" s="18">
         <f>$D$27*$D$5*D18^2/2</f>
@@ -3370,12 +4322,12 @@
         <v>6525.5484965809901</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="18">
         <f>10*$D$5*D18^2/2</f>
@@ -3399,21 +4351,21 @@
         <v>0</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" s="6">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="D37" s="6">
-        <v>2001</v>
+        <v>1500</v>
       </c>
       <c r="E37" s="6">
-        <v>2002</v>
+        <v>1500</v>
       </c>
       <c r="F37" s="25">
         <v>0</v>
@@ -3425,90 +4377,90 @@
         <v>0</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C38" s="20">
         <f>SUM(C31:C37)</f>
-        <v>9030.1406203342594</v>
+        <v>8530.1406203342594</v>
       </c>
       <c r="D38" s="20">
         <f t="shared" ref="D38:E38" si="14">SUM(D31:D37)</f>
-        <v>13783.823179230705</v>
+        <v>13282.823179230705</v>
       </c>
       <c r="E38" s="20">
         <f t="shared" si="14"/>
-        <v>21037.272588833082</v>
+        <v>20535.272588833082</v>
       </c>
       <c r="F38" s="27">
         <f>SUM(F31:F37)</f>
-        <v>1243.1136793963774</v>
+        <v>1243.8330793963773</v>
       </c>
       <c r="G38" s="20">
         <f t="shared" ref="G38:H38" si="15">SUM(G31:G37)</f>
-        <v>1352.5627513661379</v>
+        <v>1353.0319252791815</v>
       </c>
       <c r="H38" s="20">
         <f t="shared" si="15"/>
-        <v>23081.399738033462</v>
+        <v>23087.394738033465</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C40" s="3"/>
       <c r="D40" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="F40" s="10" t="s">
         <v>3</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>4</v>
       </c>
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C41" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D41" s="20">
         <f>C38+F38</f>
-        <v>10273.254299730637</v>
+        <v>9773.9736997306372</v>
       </c>
       <c r="E41" s="20">
         <f>D38+G38</f>
-        <v>15136.385930596844</v>
+        <v>14635.855104509887</v>
       </c>
       <c r="F41" s="20">
         <f>E38+H38</f>
-        <v>44118.672326866545</v>
+        <v>43622.667326866547</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H44" s="22"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C45" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="42"/>
+      <c r="C45" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="86"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="87"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C46" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D46" s="33">
         <v>0.76</v>
@@ -3519,7 +4471,7 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C47" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D47" s="33">
         <v>0.9</v>
@@ -3530,7 +4482,7 @@
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C48" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D48" s="33">
         <v>0.8</v>
@@ -3541,57 +4493,57 @@
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C49" s="11" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="D49" s="12">
         <f>D41*D14*0.001</f>
-        <v>10.885369035089587</v>
+        <v>10.356339632672922</v>
       </c>
       <c r="E49" s="12">
         <f>E41*E14*0.001</f>
-        <v>24.592002130407746</v>
+        <v>23.778792477991075</v>
       </c>
       <c r="F49" s="12">
         <f>F41*F14*0.001</f>
-        <v>5.6096891863610816</v>
+        <v>5.5466221506110829</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="3:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C50" s="19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D50" s="21">
         <f>D49/($D$46*$D$47*$D$48)</f>
-        <v>19.892852768804069</v>
+        <v>18.926059270235601</v>
       </c>
       <c r="E50" s="21">
         <f>E49/($D$46*$D$47*$D$48)</f>
-        <v>44.941524361125268</v>
+        <v>43.455395610363809</v>
       </c>
       <c r="F50" s="21">
         <f>F49/($D$46*$D$47*$D$48)</f>
-        <v>10.251624975075076</v>
+        <v>10.136370889274639</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C52" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="42"/>
+      <c r="C52" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="86"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="87"/>
     </row>
     <row r="53" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C53" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D53" s="6">
         <v>220</v>
@@ -3603,36 +4555,111 @@
         <v>220</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="3:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C54" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D54" s="70">
+        <v>58</v>
+      </c>
+      <c r="D54" s="40">
         <f>(8*(D53*0.000001)^2*D14*$D$4/(0.15^2))^(1/3)</f>
         <v>0.22799943382248666</v>
       </c>
-      <c r="E54" s="70">
+      <c r="E54" s="40">
         <f t="shared" ref="E54:F54" si="16">(8*(E53*0.000001)^2*E14*$D$4/(0.15^2))^(1/3)</f>
         <v>0.26291334310681713</v>
       </c>
-      <c r="F54" s="70">
+      <c r="F54" s="40">
         <f t="shared" si="16"/>
         <v>0.11245899132670555</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
+      <c r="C56" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" s="77"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="78"/>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C57" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C58" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="30">
+        <v>15</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C59" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59" s="12">
+        <f>(D41+100000)/100000</f>
+        <v>1.0977397369973063</v>
+      </c>
+      <c r="E59" s="12">
+        <f t="shared" ref="E59:F59" si="17">(E41+100000)/100000</f>
+        <v>1.1463585510450989</v>
+      </c>
+      <c r="F59" s="12">
+        <f t="shared" si="17"/>
+        <v>1.4362266732686653</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="20">
+        <f>($D$58+273.15)*(D59/1.01325)^(($D$57-1)/$D$57)-273.15</f>
+        <v>21.669740153048281</v>
+      </c>
+      <c r="E60" s="20">
+        <f>($D$58+273.15)*(E59/1.01325)^(($D$57-1)/$D$57)-273.15</f>
+        <v>25.342905359703991</v>
+      </c>
+      <c r="F60" s="20">
+        <f>($D$58+273.15)*(F59/1.01325)^(($D$57-1)/$D$57)-273.15</f>
+        <v>45.200957059505356</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="Q3:S4"/>
+    <mergeCell ref="M10:O11"/>
     <mergeCell ref="C52:G52"/>
     <mergeCell ref="C45:G45"/>
     <mergeCell ref="M3:O4"/>
@@ -3645,12 +4672,6 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="H16:I17"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
